--- a/Season Analysis/5 Tables.xlsx
+++ b/Season Analysis/5 Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Georgetown University\Thesis Writer\Research\QB Worth\Season Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e325b680023b100/Documents/Georgetown University/Thesis Writer/Research/QB Worth/Season Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053264E0-903A-4088-A63C-3BBA505C378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="6_{9351D05F-86D4-499C-8CC3-48E0D9F9BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D263688F-52B5-431F-A5BE-AD1B6168D9D6}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="716" activeTab="1" xr2:uid="{A4F8EAE2-AEFB-4A27-A307-595CCA1262C5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="716" activeTab="4" xr2:uid="{A4F8EAE2-AEFB-4A27-A307-595CCA1262C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Season Summary" sheetId="4" r:id="rId1"/>
@@ -2435,9 +2435,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2449,11 +2446,546 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="222">
+  <dxfs count="336">
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
@@ -3618,7 +4150,7 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5342,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4824FA36-21CB-4AB5-8BF8-F845BD6DF1D5}">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12140,299 +12672,299 @@
     <mergeCell ref="J35:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B37:E37 G37:I37 Y45:Z45 AS47:AV47">
-    <cfRule type="expression" dxfId="221" priority="87">
+    <cfRule type="expression" dxfId="335" priority="87">
       <formula>ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="86">
+    <cfRule type="expression" dxfId="334" priority="86">
       <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="85">
+    <cfRule type="expression" dxfId="333" priority="85">
       <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E41 G41:I41">
-    <cfRule type="expression" dxfId="218" priority="71">
+    <cfRule type="expression" dxfId="332" priority="71">
       <formula>AND(ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B41/B42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="70">
+    <cfRule type="expression" dxfId="331" priority="70">
       <formula>AND(ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B41/B42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="72">
+    <cfRule type="expression" dxfId="330" priority="72">
       <formula>ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43 G43:I43">
-    <cfRule type="expression" dxfId="215" priority="68">
+    <cfRule type="expression" dxfId="329" priority="68">
       <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="69">
+    <cfRule type="expression" dxfId="328" priority="69">
       <formula>ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="67">
+    <cfRule type="expression" dxfId="327" priority="67">
       <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W47:X47">
-    <cfRule type="expression" dxfId="212" priority="25">
+    <cfRule type="expression" dxfId="326" priority="25">
       <formula>AND(ABS(W47/W45)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W47/W45)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="26">
+    <cfRule type="expression" dxfId="325" priority="26">
       <formula>AND(ABS(W47/W45)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W47/W45)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="27">
+    <cfRule type="expression" dxfId="324" priority="27">
       <formula>ABS(W47/W45)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:X49">
-    <cfRule type="expression" dxfId="209" priority="22">
+    <cfRule type="expression" dxfId="323" priority="22">
       <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="23">
+    <cfRule type="expression" dxfId="322" priority="23">
       <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="24">
+    <cfRule type="expression" dxfId="321" priority="24">
       <formula>ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:Z3 B5:E5 G5:I5 W5:Z5 B7:E7 G7:I7 W7:Z7 B9:E9 G9:I9 W9:Z9 B11:E11 G11:I11 W11:Z11 B13:E13 G13:I13 W13:Z13 B15:E15 G15:I15 W15:Z15 B17:E17 G17:I17 W17:Z17 B19:E19 G19:I19 W19:Z19 B21:E21 G21:I21 W21:Z21 B23:E23 G23:I23 W23:Z23 B25:E25 G25:I25 W25:Z25 B27:E27 G27:I27 W27:Z27 B29:E29 G29:I29 W29:Z29 B31:E31 G31:I31 W31:Z31 B33:E33 G33:I33 W33:Z33 B35:E35 G35:I35 W35:Z35 W37:Z37 B39:E39 G39:I39 B45:E45 G45:I45 AM45:AP45 AS45:AV45">
-    <cfRule type="expression" dxfId="206" priority="108">
+    <cfRule type="expression" dxfId="320" priority="108">
       <formula>ABS(B3/B4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="107">
+    <cfRule type="expression" dxfId="319" priority="107">
       <formula>AND(ABS(B3/B4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B3/B4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="106">
+    <cfRule type="expression" dxfId="318" priority="106">
       <formula>AND(ABS(B3/B4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B3/B4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Z39">
-    <cfRule type="expression" dxfId="203" priority="59">
+    <cfRule type="expression" dxfId="317" priority="59">
       <formula>AND(ABS(W39/W40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W39/W40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="60">
+    <cfRule type="expression" dxfId="316" priority="60">
       <formula>ABS(W39/W40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="58">
+    <cfRule type="expression" dxfId="315" priority="58">
       <formula>AND(ABS(W39/W40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W39/W40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41:Z41">
-    <cfRule type="expression" dxfId="200" priority="63">
+    <cfRule type="expression" dxfId="314" priority="63">
       <formula>ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="62">
+    <cfRule type="expression" dxfId="313" priority="62">
       <formula>AND(ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W41/W42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="61">
+    <cfRule type="expression" dxfId="312" priority="61">
       <formula>AND(ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W41/W42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43:Z43">
-    <cfRule type="expression" dxfId="197" priority="66">
+    <cfRule type="expression" dxfId="311" priority="66">
       <formula>ABS(W43/W44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="65">
+    <cfRule type="expression" dxfId="310" priority="65">
       <formula>AND(ABS(W43/W44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W43/W44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="64">
+    <cfRule type="expression" dxfId="309" priority="64">
       <formula>AND(ABS(W43/W44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W43/W44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AP3 AM5:AP5 AM7:AP7 AM9:AP9 AM11:AP11 AM13:AP13 AM15:AP15 AM17:AP17 AM19:AP19 AM21:AP21 AM23:AP23 AM25:AP25 AM27:AP27 AM29:AP29 AM31:AP31 AM33:AP33 AM37:AP37 AM43:AP43 AM49:AP49 AM51:AP51 AM55:AP55">
-    <cfRule type="expression" dxfId="194" priority="102">
+    <cfRule type="expression" dxfId="308" priority="102">
       <formula>ABS(AM3/AM4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="101">
+    <cfRule type="expression" dxfId="307" priority="101">
       <formula>AND(ABS(AM3/AM4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM3/AM4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="100">
+    <cfRule type="expression" dxfId="306" priority="100">
       <formula>AND(ABS(AM3/AM4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM3/AM4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM35:AP35">
-    <cfRule type="expression" dxfId="191" priority="84">
+    <cfRule type="expression" dxfId="305" priority="84">
       <formula>ABS(AM35/AM36)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="83">
+    <cfRule type="expression" dxfId="304" priority="83">
       <formula>AND(ABS(AM35/AM36)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM35/AM36)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="82">
+    <cfRule type="expression" dxfId="303" priority="82">
       <formula>AND(ABS(AM35/AM36)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM35/AM36)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39:AP39">
-    <cfRule type="expression" dxfId="188" priority="54">
+    <cfRule type="expression" dxfId="302" priority="54">
       <formula>ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="53">
+    <cfRule type="expression" dxfId="301" priority="53">
       <formula>AND(ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM39/AM40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="52">
+    <cfRule type="expression" dxfId="300" priority="52">
       <formula>AND(ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM39/AM40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM41:AP41">
-    <cfRule type="expression" dxfId="185" priority="56">
+    <cfRule type="expression" dxfId="299" priority="56">
       <formula>AND(ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM41/AM42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="57">
+    <cfRule type="expression" dxfId="298" priority="57">
       <formula>ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="55">
+    <cfRule type="expression" dxfId="297" priority="55">
       <formula>AND(ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM41/AM42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM47:AP47">
-    <cfRule type="expression" dxfId="182" priority="110">
+    <cfRule type="expression" dxfId="296" priority="110">
       <formula>AND(ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM47/AM48)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="109">
+    <cfRule type="expression" dxfId="295" priority="109">
       <formula>AND(ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM47/AM48)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="111">
+    <cfRule type="expression" dxfId="294" priority="111">
       <formula>ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM53:AP53">
-    <cfRule type="expression" dxfId="179" priority="99">
+    <cfRule type="expression" dxfId="293" priority="99">
       <formula>ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="98">
+    <cfRule type="expression" dxfId="292" priority="98">
       <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="97">
+    <cfRule type="expression" dxfId="291" priority="97">
       <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AV3 AS5:AV5 AS7:AV7 AS9:AV9 AS11:AV11 AS13:AV13 AS15:AV15 AS17:AV17 AS19:AV19 AS21:AV21 AS23:AV23 AS25:AV25 AS27:AV27 AS29:AV29 AS31:AV31 AS33:AV33 AS37:AV37 AS43:AV43 AS49:AV49 AS51:AV51 AS55:AV55">
-    <cfRule type="expression" dxfId="176" priority="105">
+    <cfRule type="expression" dxfId="290" priority="105">
       <formula>ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="104">
+    <cfRule type="expression" dxfId="289" priority="104">
       <formula>AND(ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS3/AS4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="103">
+    <cfRule type="expression" dxfId="288" priority="103">
       <formula>AND(ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS3/AS4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AV35">
-    <cfRule type="expression" dxfId="173" priority="81">
+    <cfRule type="expression" dxfId="287" priority="81">
       <formula>ABS(AS35/AS36)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="79">
+    <cfRule type="expression" dxfId="286" priority="79">
       <formula>AND(ABS(AS35/AS36)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS35/AS36)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="80">
+    <cfRule type="expression" dxfId="285" priority="80">
       <formula>AND(ABS(AS35/AS36)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS35/AS36)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS39:AV39">
-    <cfRule type="expression" dxfId="170" priority="46">
+    <cfRule type="expression" dxfId="284" priority="46">
       <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="48">
+    <cfRule type="expression" dxfId="283" priority="48">
       <formula>ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="47">
+    <cfRule type="expression" dxfId="282" priority="47">
       <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS41:AV41">
-    <cfRule type="expression" dxfId="167" priority="49">
+    <cfRule type="expression" dxfId="281" priority="49">
       <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="50">
+    <cfRule type="expression" dxfId="280" priority="50">
       <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="51">
+    <cfRule type="expression" dxfId="279" priority="51">
       <formula>ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS53:AV53">
-    <cfRule type="expression" dxfId="164" priority="94">
+    <cfRule type="expression" dxfId="278" priority="94">
       <formula>AND(ABS(AS53/AS54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS53/AS54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="95">
+    <cfRule type="expression" dxfId="277" priority="95">
       <formula>AND(ABS(AS53/AS54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS53/AS54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="96">
+    <cfRule type="expression" dxfId="276" priority="96">
       <formula>ABS(AS53/AS54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:BB3 AY5:BB5 AY7:BB7 AY9:BB9 AY11:BB11 AY13:BB13 AY15:BB15 AY17:BB17 AY19:BB19 AY21:BB21 AY23:BB23 AY25:BB25 AY27:BB27 AY29:BB29 AY31:BB31 AY33:BB33 AY37:BB37 AY43:BB43 AY49:BB49 AY51:BB51 AY55:BB55">
-    <cfRule type="expression" dxfId="161" priority="18">
+    <cfRule type="expression" dxfId="275" priority="18">
       <formula>ABS(AY3/AY4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="17">
+    <cfRule type="expression" dxfId="274" priority="17">
       <formula>AND(ABS(AY3/AY4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY3/AY4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="16">
+    <cfRule type="expression" dxfId="273" priority="16">
       <formula>AND(ABS(AY3/AY4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY3/AY4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY35:BB35">
-    <cfRule type="expression" dxfId="158" priority="7">
+    <cfRule type="expression" dxfId="272" priority="7">
       <formula>AND(ABS(AY35/AY36)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY35/AY36)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="9">
+    <cfRule type="expression" dxfId="271" priority="9">
       <formula>ABS(AY35/AY36)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="8">
+    <cfRule type="expression" dxfId="270" priority="8">
       <formula>AND(ABS(AY35/AY36)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY35/AY36)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY39:BB39">
-    <cfRule type="expression" dxfId="155" priority="2">
+    <cfRule type="expression" dxfId="269" priority="2">
       <formula>AND(ABS(AY39/AY40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY39/AY40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="1">
+    <cfRule type="expression" dxfId="268" priority="1">
       <formula>AND(ABS(AY39/AY40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY39/AY40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="3">
+    <cfRule type="expression" dxfId="267" priority="3">
       <formula>ABS(AY39/AY40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY41:BB41">
-    <cfRule type="expression" dxfId="152" priority="6">
+    <cfRule type="expression" dxfId="266" priority="6">
       <formula>ABS(AY41/AY42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="5">
+    <cfRule type="expression" dxfId="265" priority="5">
       <formula>AND(ABS(AY41/AY42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY41/AY42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="4">
+    <cfRule type="expression" dxfId="264" priority="4">
       <formula>AND(ABS(AY41/AY42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY41/AY42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY45:BB45">
-    <cfRule type="expression" dxfId="149" priority="20">
+    <cfRule type="expression" dxfId="263" priority="20">
       <formula>AND(ABS(AY45/AY46)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY45/AY46)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="19">
+    <cfRule type="expression" dxfId="262" priority="19">
       <formula>AND(ABS(AY45/AY46)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY45/AY46)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="21">
+    <cfRule type="expression" dxfId="261" priority="21">
       <formula>ABS(AY45/AY46)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY47:BB47">
-    <cfRule type="expression" dxfId="146" priority="11">
+    <cfRule type="expression" dxfId="260" priority="11">
       <formula>AND(ABS(AY47/AY48)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY47/AY48)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="12">
+    <cfRule type="expression" dxfId="259" priority="12">
       <formula>ABS(AY47/AY48)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="10">
+    <cfRule type="expression" dxfId="258" priority="10">
       <formula>AND(ABS(AY47/AY48)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY47/AY48)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY53:BB53">
-    <cfRule type="expression" dxfId="143" priority="14">
+    <cfRule type="expression" dxfId="257" priority="14">
       <formula>AND(ABS(AY53/AY54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY53/AY54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="13">
+    <cfRule type="expression" dxfId="256" priority="13">
       <formula>AND(ABS(AY53/AY54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY53/AY54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="15">
+    <cfRule type="expression" dxfId="255" priority="15">
       <formula>ABS(AY53/AY54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19912,134 +20444,134 @@
     <mergeCell ref="BH24:BK24"/>
   </mergeCells>
   <conditionalFormatting sqref="V5:Z5 AH5:AL5 V7:Z7 AH7:AL7 V9:Z9 AH9:AL9 V11:Z11 AH11:AL11 V13:Z13 AH13:AL13 V15:Z15 AH15:AL15 V17:Z17 AH17:AL17 V19:Z19 AH19:AL19 V21:Z21 AH21:AL21 V23:Z23 AH23:AL23 V25:Z25 AH25:AL25 V27:Z27 AH27:AL27 V29:Z29 AH29:AL29 V31:Z31 AH31:AL31 V33:Z33 AH33:AL33 V35:Z35 AH35:AL35 V37:Z37 AH37:AL37 V39:Z39 AH39:AL39 V45:Z45 AB45:AD45 AN45:AP45">
-    <cfRule type="expression" dxfId="140" priority="118">
+    <cfRule type="expression" dxfId="254" priority="118">
       <formula>AND(ABS(V5/V6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(V5/V6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="119">
+    <cfRule type="expression" dxfId="253" priority="119">
       <formula>AND(ABS(V5/V6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(V5/V6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="120">
+    <cfRule type="expression" dxfId="252" priority="120">
       <formula>ABS(V5/V6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41:Z41 AB41:AD41">
-    <cfRule type="expression" dxfId="137" priority="25">
+    <cfRule type="expression" dxfId="251" priority="25">
       <formula>AND(ABS(V41/V42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(V41/V42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="26">
+    <cfRule type="expression" dxfId="250" priority="26">
       <formula>AND(ABS(V41/V42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(V41/V42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="27">
+    <cfRule type="expression" dxfId="249" priority="27">
       <formula>ABS(V41/V42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V43:Z43 AB43:AD43">
-    <cfRule type="expression" dxfId="134" priority="28">
+    <cfRule type="expression" dxfId="248" priority="28">
       <formula>AND(ABS(V43/V44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(V43/V44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="29">
+    <cfRule type="expression" dxfId="247" priority="29">
       <formula>AND(ABS(V43/V44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(V43/V44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="30">
+    <cfRule type="expression" dxfId="246" priority="30">
       <formula>ABS(V43/V44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AD5 AB7:AD7 AB9:AD9 AB11:AD11 AB13:AD13 AB15:AD15 AB17:AD17 AB19:AD19 AB21:AD21 AB23:AD23 AB25:AD25 AB27:AD27 AB29:AD29 AB31:AD31 AB33:AD33 AB35:AD35 AB39:AD39">
-    <cfRule type="expression" dxfId="131" priority="97">
+    <cfRule type="expression" dxfId="245" priority="97">
       <formula>AND(ABS(AB5/AB6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB5/AB6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="98">
+    <cfRule type="expression" dxfId="244" priority="98">
       <formula>AND(ABS(AB5/AB6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB5/AB6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="99">
+    <cfRule type="expression" dxfId="243" priority="99">
       <formula>ABS(AB5/AB6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37:AD37">
-    <cfRule type="expression" dxfId="128" priority="75">
+    <cfRule type="expression" dxfId="242" priority="75">
       <formula>ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="74">
+    <cfRule type="expression" dxfId="241" priority="74">
       <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="73">
+    <cfRule type="expression" dxfId="240" priority="73">
       <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH41:AL41">
-    <cfRule type="expression" dxfId="125" priority="10">
+    <cfRule type="expression" dxfId="239" priority="10">
       <formula>AND(ABS(AH41/AH42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH41/AH42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="11">
+    <cfRule type="expression" dxfId="238" priority="11">
       <formula>AND(ABS(AH41/AH42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH41/AH42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="12">
+    <cfRule type="expression" dxfId="237" priority="12">
       <formula>ABS(AH41/AH42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH43:AL43">
-    <cfRule type="expression" dxfId="122" priority="22">
+    <cfRule type="expression" dxfId="236" priority="22">
       <formula>AND(ABS(AH43/AH44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH43/AH44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="23">
+    <cfRule type="expression" dxfId="235" priority="23">
       <formula>AND(ABS(AH43/AH44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH43/AH44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="24">
+    <cfRule type="expression" dxfId="234" priority="24">
       <formula>ABS(AH43/AH44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AL45">
-    <cfRule type="expression" dxfId="119" priority="195">
+    <cfRule type="expression" dxfId="233" priority="195">
       <formula>ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="193">
+    <cfRule type="expression" dxfId="232" priority="193">
       <formula>AND(ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH45/AH46)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="194">
+    <cfRule type="expression" dxfId="231" priority="194">
       <formula>AND(ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH45/AH46)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AP5 AN7:AP7 AN9:AP9 AN11:AP11 AN13:AP13 AN15:AP15 AN17:AP17 AN19:AP19 AN21:AP21 AN23:AP23 AN25:AP25 AN27:AP27 AN29:AP29 AN31:AP31 AN33:AP33 AN35:AP35 AN39:AP39">
-    <cfRule type="expression" dxfId="116" priority="92">
+    <cfRule type="expression" dxfId="230" priority="92">
       <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="91">
+    <cfRule type="expression" dxfId="229" priority="91">
       <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="93">
+    <cfRule type="expression" dxfId="228" priority="93">
       <formula>ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN37:AP37">
-    <cfRule type="expression" dxfId="113" priority="67">
+    <cfRule type="expression" dxfId="227" priority="67">
       <formula>AND(ABS(AN37/AN38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN37/AN38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="68">
+    <cfRule type="expression" dxfId="226" priority="68">
       <formula>AND(ABS(AN37/AN38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN37/AN38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="69">
+    <cfRule type="expression" dxfId="225" priority="69">
       <formula>ABS(AN37/AN38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN41:AP41">
-    <cfRule type="expression" dxfId="110" priority="8">
+    <cfRule type="expression" dxfId="224" priority="8">
       <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="9">
+    <cfRule type="expression" dxfId="223" priority="9">
       <formula>ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="7">
+    <cfRule type="expression" dxfId="222" priority="7">
       <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN43:AP43">
-    <cfRule type="expression" dxfId="107" priority="21">
+    <cfRule type="expression" dxfId="221" priority="21">
       <formula>ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="20">
+    <cfRule type="expression" dxfId="220" priority="20">
       <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="19">
+    <cfRule type="expression" dxfId="219" priority="19">
       <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23187,13 +23719,13 @@
     <mergeCell ref="D32:D33"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4 E4:F4 B6:C6 E6:F6 B8:C8 E8:F8 B10:C10 E10:F10 B12:C12 E12:F12 B14:C14 E14:F14 B16:C16 E16:F16 B18:C18 E18:F18 B20:C20 E20:F20 B22:C22 E22:F22 B24:C24 E24:F24 B26:C26 E26:F26 B28:C28 E28:F28 B30:C30 E30:F30 B32:C32 E32:F32 B34:C34 E34:F34 B36:C36 E36:F36 B38:C38 E38:F38">
-    <cfRule type="expression" dxfId="104" priority="7">
+    <cfRule type="expression" dxfId="218" priority="7">
       <formula>AND(ABS(B4/B5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B4/B5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="8">
+    <cfRule type="expression" dxfId="217" priority="8">
       <formula>AND(ABS(B4/B5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B4/B5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="216" priority="9">
       <formula>ABS(B4/B5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23205,8 +23737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E4BB4-D169-485F-9F49-6D22A4AA3C94}">
   <dimension ref="A1:AM79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -23266,22 +23798,22 @@
       <c r="V1" s="138"/>
       <c r="W1" s="138"/>
       <c r="X1" s="138"/>
-      <c r="Y1" s="140"/>
+      <c r="Y1" s="138"/>
       <c r="AA1" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
     </row>
     <row r="2" spans="1:39" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13"/>
@@ -23297,7 +23829,7 @@
       <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="160" t="s">
         <v>245</v>
       </c>
       <c r="H2" s="152" t="s">
@@ -23314,7 +23846,7 @@
         <v>226</v>
       </c>
       <c r="O2" s="154"/>
-      <c r="Q2" s="161" t="s">
+      <c r="Q2" s="160" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="152" t="s">
@@ -23325,13 +23857,13 @@
       <c r="U2" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
       <c r="X2" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="Y2" s="154"/>
-      <c r="AA2" s="161" t="s">
+      <c r="Y2" s="152"/>
+      <c r="AA2" s="160" t="s">
         <v>245</v>
       </c>
       <c r="AB2" s="152" t="s">
@@ -23342,18 +23874,18 @@
       <c r="AE2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
       <c r="AH2" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
       <c r="AK2" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="AL2" s="154"/>
-      <c r="AM2" s="154"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="152"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
@@ -23396,7 +23928,7 @@
       <c r="O3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q3" s="148"/>
+      <c r="Q3" s="165"/>
       <c r="R3" s="6" t="s">
         <v>232</v>
       </c>
@@ -23421,7 +23953,7 @@
       <c r="Y3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AA3" s="148"/>
+      <c r="AA3" s="165"/>
       <c r="AB3" s="6" t="s">
         <v>232</v>
       </c>
@@ -24361,67 +24893,67 @@
       <c r="Q12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="3">
         <v>-2.122744E-2</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="3">
         <v>-1.60652E-3</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="3">
         <v>-1.78867E-3</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="3">
         <v>2.6784260000000001E-2</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="3">
         <v>2.6147700000000002E-3</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="3">
         <v>-1.7925599999999999E-3</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="3">
         <v>-3.5965699999999999E-3</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="3">
         <v>-3.2470300000000001E-3</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="3">
         <v>-0.15157478999999999</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="3">
         <v>-1.4823329999999999E-2</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="3">
         <v>-1.63442E-2</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="3">
         <v>-0.15768157999999999</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="3">
         <v>-1.544074E-2</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="3">
         <v>-1.6800369999999998E-2</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="3">
         <v>-0.15738384</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="3">
         <v>-1.540854E-2</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="3">
         <v>-1.709012E-2</v>
       </c>
-      <c r="AK12" s="7">
+      <c r="AK12" s="3">
         <v>-0.1504761</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL12" s="3">
         <v>-1.473938E-2</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AM12" s="3">
         <v>-1.6726419999999999E-2</v>
       </c>
     </row>
@@ -24986,7 +25518,7 @@
       <c r="K18" s="159">
         <v>0.54524678999999998</v>
       </c>
-      <c r="L18" s="164"/>
+      <c r="L18" s="163"/>
       <c r="M18" s="31">
         <v>0.50872728</v>
       </c>
@@ -25009,7 +25541,7 @@
       <c r="U18" s="159">
         <v>0.55572748000000005</v>
       </c>
-      <c r="V18" s="164"/>
+      <c r="V18" s="159"/>
       <c r="W18" s="31">
         <v>0.51665450999999996</v>
       </c>
@@ -25025,28 +25557,28 @@
       <c r="AB18" s="159">
         <v>0.55592395999999999</v>
       </c>
-      <c r="AC18" s="160"/>
+      <c r="AC18" s="159"/>
       <c r="AD18" s="31">
         <v>0.51494600000000001</v>
       </c>
       <c r="AE18" s="159">
         <v>0.55526279999999995</v>
       </c>
-      <c r="AF18" s="160"/>
+      <c r="AF18" s="159"/>
       <c r="AG18" s="31">
         <v>0.51441066000000002</v>
       </c>
       <c r="AH18" s="159">
         <v>0.55523436000000004</v>
       </c>
-      <c r="AI18" s="160"/>
+      <c r="AI18" s="159"/>
       <c r="AJ18" s="31">
         <v>0.51489779000000002</v>
       </c>
       <c r="AK18" s="159">
         <v>0.55498342000000001</v>
       </c>
-      <c r="AL18" s="160"/>
+      <c r="AL18" s="159"/>
       <c r="AM18" s="31">
         <v>0.51524692999999999</v>
       </c>
@@ -25067,38 +25599,38 @@
       <c r="E19" s="17">
         <v>19.608695999999998</v>
       </c>
-      <c r="G19" s="162" t="s">
+      <c r="G19" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="Q19" s="162" t="s">
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="Q19" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
       <c r="AA19" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="142"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="142"/>
-      <c r="AG19" s="142"/>
-      <c r="AH19" s="142"/>
-      <c r="AI19" s="142"/>
-      <c r="AJ19" s="142"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="141"/>
+      <c r="AI19" s="141"/>
+      <c r="AJ19" s="141"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
@@ -25156,22 +25688,22 @@
       <c r="V21" s="138"/>
       <c r="W21" s="138"/>
       <c r="X21" s="138"/>
-      <c r="Y21" s="140"/>
+      <c r="Y21" s="138"/>
       <c r="AA21" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="AB21" s="140"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="140"/>
-      <c r="AH21" s="140"/>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="140"/>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="140"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="138"/>
+      <c r="AK21" s="138"/>
+      <c r="AL21" s="138"/>
+      <c r="AM21" s="138"/>
     </row>
     <row r="22" spans="1:39" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
@@ -25189,7 +25721,7 @@
       <c r="E22" s="17">
         <v>9.4907407999999993</v>
       </c>
-      <c r="G22" s="161" t="s">
+      <c r="G22" s="160" t="s">
         <v>245</v>
       </c>
       <c r="H22" s="152" t="s">
@@ -25206,7 +25738,7 @@
         <v>226</v>
       </c>
       <c r="O22" s="154"/>
-      <c r="Q22" s="161" t="s">
+      <c r="Q22" s="160" t="s">
         <v>245</v>
       </c>
       <c r="R22" s="152" t="s">
@@ -25217,13 +25749,13 @@
       <c r="U22" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
+      <c r="V22" s="152"/>
+      <c r="W22" s="152"/>
       <c r="X22" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="Y22" s="154"/>
-      <c r="AA22" s="161" t="s">
+      <c r="Y22" s="152"/>
+      <c r="AA22" s="160" t="s">
         <v>245</v>
       </c>
       <c r="AB22" s="152" t="s">
@@ -25234,18 +25766,18 @@
       <c r="AE22" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="AF22" s="154"/>
-      <c r="AG22" s="154"/>
+      <c r="AF22" s="152"/>
+      <c r="AG22" s="152"/>
       <c r="AH22" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="AI22" s="154"/>
-      <c r="AJ22" s="154"/>
+      <c r="AI22" s="152"/>
+      <c r="AJ22" s="152"/>
       <c r="AK22" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="AL22" s="154"/>
-      <c r="AM22" s="154"/>
+      <c r="AL22" s="152"/>
+      <c r="AM22" s="152"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
@@ -25288,7 +25820,7 @@
       <c r="O23" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q23" s="148"/>
+      <c r="Q23" s="165"/>
       <c r="R23" s="6" t="s">
         <v>232</v>
       </c>
@@ -25313,7 +25845,7 @@
       <c r="Y23" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AA23" s="148"/>
+      <c r="AA23" s="165"/>
       <c r="AB23" s="6" t="s">
         <v>232</v>
       </c>
@@ -26253,67 +26785,67 @@
       <c r="Q32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="3">
         <v>-6.1060040000000003E-2</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="3">
         <v>-4.7179500000000003E-3</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="3">
         <v>-5.0417500000000002E-3</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="3">
         <v>-3.5283809999999999E-2</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="3">
         <v>-3.5367100000000002E-3</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="3">
         <v>-2.7244399999999998E-3</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="3">
         <v>-7.4832299999999996E-3</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="3">
         <v>-6.2806900000000002E-3</v>
       </c>
       <c r="AA32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AB32" s="3">
         <v>9.4098280000000006E-2</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AC32" s="3">
         <v>9.5219599999999995E-3</v>
       </c>
-      <c r="AD32" s="7">
+      <c r="AD32" s="3">
         <v>7.9590500000000005E-3</v>
       </c>
-      <c r="AE32" s="7">
+      <c r="AE32" s="3">
         <v>8.3846660000000003E-2</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AF32" s="3">
         <v>8.4978899999999993E-3</v>
       </c>
-      <c r="AG32" s="7">
+      <c r="AG32" s="3">
         <v>8.0316599999999995E-3</v>
       </c>
-      <c r="AH32" s="7">
+      <c r="AH32" s="3">
         <v>6.8748149999999994E-2</v>
       </c>
-      <c r="AI32" s="7">
+      <c r="AI32" s="3">
         <v>6.9532099999999996E-3</v>
       </c>
-      <c r="AJ32" s="7">
+      <c r="AJ32" s="3">
         <v>6.5539999999999999E-3</v>
       </c>
-      <c r="AK32" s="7">
+      <c r="AK32" s="3">
         <v>5.1132150000000001E-2</v>
       </c>
-      <c r="AL32" s="7">
+      <c r="AL32" s="3">
         <v>5.1154900000000003E-3</v>
       </c>
-      <c r="AM32" s="7">
+      <c r="AM32" s="3">
         <v>5.1165400000000002E-3</v>
       </c>
     </row>
@@ -26878,7 +27410,7 @@
       <c r="K38" s="159">
         <v>0.54481528999999995</v>
       </c>
-      <c r="L38" s="164"/>
+      <c r="L38" s="163"/>
       <c r="M38" s="31">
         <v>0.50814572999999996</v>
       </c>
@@ -26901,7 +27433,7 @@
       <c r="U38" s="159">
         <v>0.54557962000000004</v>
       </c>
-      <c r="V38" s="164"/>
+      <c r="V38" s="159"/>
       <c r="W38" s="31">
         <v>0.50766871999999996</v>
       </c>
@@ -26924,21 +27456,21 @@
       <c r="AE38" s="159">
         <v>0.53910985</v>
       </c>
-      <c r="AF38" s="160"/>
+      <c r="AF38" s="159"/>
       <c r="AG38" s="31">
         <v>0.50386094000000003</v>
       </c>
       <c r="AH38" s="159">
         <v>0.53992614000000005</v>
       </c>
-      <c r="AI38" s="160"/>
+      <c r="AI38" s="159"/>
       <c r="AJ38" s="31">
         <v>0.50478877</v>
       </c>
       <c r="AK38" s="159">
         <v>0.54450500999999996</v>
       </c>
-      <c r="AL38" s="160"/>
+      <c r="AL38" s="159"/>
       <c r="AM38" s="31">
         <v>0.50734732999999999</v>
       </c>
@@ -26959,38 +27491,38 @@
       <c r="E39" s="17">
         <v>122.3</v>
       </c>
-      <c r="G39" s="162" t="s">
+      <c r="G39" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="Q39" s="162" t="s">
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="Q39" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="R39" s="163"/>
-      <c r="S39" s="163"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="163"/>
-      <c r="V39" s="163"/>
-      <c r="W39" s="163"/>
-      <c r="X39" s="163"/>
+      <c r="R39" s="141"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="141"/>
+      <c r="U39" s="141"/>
+      <c r="V39" s="141"/>
+      <c r="W39" s="141"/>
+      <c r="X39" s="141"/>
       <c r="AA39" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="AB39" s="142"/>
-      <c r="AC39" s="142"/>
-      <c r="AD39" s="142"/>
-      <c r="AE39" s="142"/>
-      <c r="AF39" s="142"/>
-      <c r="AG39" s="142"/>
-      <c r="AH39" s="142"/>
-      <c r="AI39" s="142"/>
-      <c r="AJ39" s="142"/>
+      <c r="AB39" s="141"/>
+      <c r="AC39" s="141"/>
+      <c r="AD39" s="141"/>
+      <c r="AE39" s="141"/>
+      <c r="AF39" s="141"/>
+      <c r="AG39" s="141"/>
+      <c r="AH39" s="141"/>
+      <c r="AI39" s="141"/>
+      <c r="AJ39" s="141"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
@@ -27053,7 +27585,7 @@
       <c r="E42" s="17">
         <v>18.382245999999999</v>
       </c>
-      <c r="G42" s="161" t="s">
+      <c r="G42" s="160" t="s">
         <v>245</v>
       </c>
       <c r="H42" s="152" t="s">
@@ -27534,7 +28066,7 @@
       <c r="K58" s="159">
         <v>0.54510913999999999</v>
       </c>
-      <c r="L58" s="164"/>
+      <c r="L58" s="163"/>
       <c r="M58" s="31">
         <v>0.50883844</v>
       </c>
@@ -27546,16 +28078,16 @@
       </c>
     </row>
     <row r="59" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G59" s="162" t="s">
+      <c r="G59" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
-      <c r="L59" s="163"/>
-      <c r="M59" s="163"/>
-      <c r="N59" s="163"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="162"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="162"/>
+      <c r="M59" s="162"/>
+      <c r="N59" s="162"/>
     </row>
     <row r="61" spans="7:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G61" s="138" t="s">
@@ -27571,7 +28103,7 @@
       <c r="O61" s="140"/>
     </row>
     <row r="62" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G62" s="161" t="s">
+      <c r="G62" s="160" t="s">
         <v>245</v>
       </c>
       <c r="H62" s="152" t="s">
@@ -28022,7 +28554,7 @@
       <c r="K78" s="159">
         <v>0.54688442000000004</v>
       </c>
-      <c r="L78" s="164"/>
+      <c r="L78" s="163"/>
       <c r="M78" s="31">
         <v>0.51021148999999999</v>
       </c>
@@ -28034,16 +28566,16 @@
       </c>
     </row>
     <row r="79" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G79" s="162" t="s">
+      <c r="G79" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="H79" s="163"/>
-      <c r="I79" s="163"/>
-      <c r="J79" s="163"/>
-      <c r="K79" s="163"/>
-      <c r="L79" s="163"/>
-      <c r="M79" s="163"/>
-      <c r="N79" s="163"/>
+      <c r="H79" s="162"/>
+      <c r="I79" s="162"/>
+      <c r="J79" s="162"/>
+      <c r="K79" s="162"/>
+      <c r="L79" s="162"/>
+      <c r="M79" s="162"/>
+      <c r="N79" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="71">
@@ -28120,366 +28652,410 @@
     <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:O4 H14:O14 H16:O16 H24:O24 H34:O34 H36:O36 H44:O44 H54:O54 H56:O56">
-    <cfRule type="expression" dxfId="101" priority="132">
+    <cfRule type="expression" dxfId="215" priority="189">
       <formula>ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="131">
+    <cfRule type="expression" dxfId="214" priority="188">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="130">
+    <cfRule type="expression" dxfId="213" priority="187">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:O6">
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="212" priority="159">
       <formula>ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="101">
+    <cfRule type="expression" dxfId="211" priority="158">
       <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="100">
+    <cfRule type="expression" dxfId="210" priority="157">
       <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:O8">
-    <cfRule type="expression" dxfId="95" priority="105">
+    <cfRule type="expression" dxfId="209" priority="162">
       <formula>ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="104">
+    <cfRule type="expression" dxfId="208" priority="161">
       <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="103">
+    <cfRule type="expression" dxfId="207" priority="160">
       <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:O10">
-    <cfRule type="expression" dxfId="92" priority="108">
+    <cfRule type="expression" dxfId="206" priority="165">
       <formula>ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="107">
+    <cfRule type="expression" dxfId="205" priority="164">
       <formula>AND(ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H10/H11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="106">
+    <cfRule type="expression" dxfId="204" priority="163">
       <formula>AND(ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H10/H11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:O12">
-    <cfRule type="expression" dxfId="89" priority="10">
+    <cfRule type="expression" dxfId="203" priority="67">
       <formula>AND(ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H12/H13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="11">
+    <cfRule type="expression" dxfId="202" priority="68">
       <formula>AND(ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H12/H13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="12">
+    <cfRule type="expression" dxfId="201" priority="69">
       <formula>ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:O26">
-    <cfRule type="expression" dxfId="86" priority="91">
+    <cfRule type="expression" dxfId="200" priority="148">
       <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="92">
+    <cfRule type="expression" dxfId="199" priority="149">
       <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="93">
+    <cfRule type="expression" dxfId="198" priority="150">
       <formula>ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:O28">
-    <cfRule type="expression" dxfId="83" priority="96">
+    <cfRule type="expression" dxfId="197" priority="153">
       <formula>ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="95">
+    <cfRule type="expression" dxfId="196" priority="152">
       <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="94">
+    <cfRule type="expression" dxfId="195" priority="151">
       <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:O30">
-    <cfRule type="expression" dxfId="80" priority="99">
+    <cfRule type="expression" dxfId="194" priority="156">
       <formula>ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="98">
+    <cfRule type="expression" dxfId="193" priority="155">
       <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="97">
+    <cfRule type="expression" dxfId="192" priority="154">
       <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:O32">
-    <cfRule type="expression" dxfId="77" priority="7">
+    <cfRule type="expression" dxfId="191" priority="64">
       <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="8">
+    <cfRule type="expression" dxfId="190" priority="65">
       <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="9">
+    <cfRule type="expression" dxfId="189" priority="66">
       <formula>ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:O46">
-    <cfRule type="expression" dxfId="74" priority="84">
+    <cfRule type="expression" dxfId="188" priority="141">
       <formula>ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="187" priority="140">
       <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="82">
+    <cfRule type="expression" dxfId="186" priority="139">
       <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:O48">
-    <cfRule type="expression" dxfId="71" priority="87">
+    <cfRule type="expression" dxfId="185" priority="144">
       <formula>ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="86">
+    <cfRule type="expression" dxfId="184" priority="143">
       <formula>AND(ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H48/H49)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="85">
+    <cfRule type="expression" dxfId="183" priority="142">
       <formula>AND(ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H48/H49)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:O50">
-    <cfRule type="expression" dxfId="68" priority="90">
+    <cfRule type="expression" dxfId="182" priority="147">
       <formula>ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="89">
+    <cfRule type="expression" dxfId="181" priority="146">
       <formula>AND(ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H50/H51)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="88">
+    <cfRule type="expression" dxfId="180" priority="145">
       <formula>AND(ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H50/H51)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:O52">
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="179" priority="63">
       <formula>ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="178" priority="62">
       <formula>AND(ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H52/H53)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="177" priority="61">
       <formula>AND(ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H52/H53)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:O64 H74:O74 H76:O76">
-    <cfRule type="expression" dxfId="62" priority="109">
+    <cfRule type="expression" dxfId="176" priority="166">
       <formula>AND(ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H64/H65)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="110">
+    <cfRule type="expression" dxfId="175" priority="167">
       <formula>AND(ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H64/H65)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="111">
+    <cfRule type="expression" dxfId="174" priority="168">
       <formula>ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:O66">
-    <cfRule type="expression" dxfId="59" priority="75">
+    <cfRule type="expression" dxfId="173" priority="132">
       <formula>ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="74">
+    <cfRule type="expression" dxfId="172" priority="131">
       <formula>AND(ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H66/H67)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="73">
+    <cfRule type="expression" dxfId="171" priority="130">
       <formula>AND(ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H66/H67)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:O68">
-    <cfRule type="expression" dxfId="56" priority="78">
+    <cfRule type="expression" dxfId="170" priority="135">
       <formula>ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="77">
+    <cfRule type="expression" dxfId="169" priority="134">
       <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="76">
+    <cfRule type="expression" dxfId="168" priority="133">
       <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:O70">
-    <cfRule type="expression" dxfId="53" priority="81">
+    <cfRule type="expression" dxfId="167" priority="138">
       <formula>ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="80">
+    <cfRule type="expression" dxfId="166" priority="137">
       <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="79">
+    <cfRule type="expression" dxfId="165" priority="136">
       <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:O72">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="164" priority="59">
       <formula>AND(ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H72/H73)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="163" priority="58">
       <formula>AND(ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H72/H73)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="162" priority="60">
       <formula>ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:Y4 R14:Y14 R16:Y16 R24:Y24 R34:Y34 R36:Y36">
-    <cfRule type="expression" dxfId="47" priority="70">
+    <cfRule type="expression" dxfId="113" priority="55">
       <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="71">
+    <cfRule type="expression" dxfId="112" priority="55">
       <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="72">
+    <cfRule type="expression" dxfId="111" priority="55">
       <formula>ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:Y6">
-    <cfRule type="expression" dxfId="44" priority="60">
-      <formula>ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="107" priority="52">
+      <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="59">
+    <cfRule type="expression" dxfId="106" priority="52">
       <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="58">
-      <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="105" priority="52">
+      <formula>ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Y8">
-    <cfRule type="expression" dxfId="41" priority="61">
+    <cfRule type="expression" dxfId="101" priority="49">
       <formula>AND(ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R8/R9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="62">
+    <cfRule type="expression" dxfId="100" priority="49">
       <formula>AND(ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R8/R9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="63">
+    <cfRule type="expression" dxfId="99" priority="49">
       <formula>ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:Y10">
-    <cfRule type="expression" dxfId="38" priority="66">
-      <formula>ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="95" priority="46">
+      <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="65">
+    <cfRule type="expression" dxfId="94" priority="47">
       <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="64">
-      <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="93" priority="48">
+      <formula>ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26:Y26">
-    <cfRule type="expression" dxfId="35" priority="50">
+    <cfRule type="expression" dxfId="89" priority="43">
+      <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="43">
       <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="49">
-      <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51">
+    <cfRule type="expression" dxfId="87" priority="43">
       <formula>ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:Y28">
-    <cfRule type="expression" dxfId="32" priority="54">
-      <formula>ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="83" priority="40">
+      <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="53">
+    <cfRule type="expression" dxfId="82" priority="40">
       <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52">
-      <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="81" priority="40">
+      <formula>ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:Y30">
-    <cfRule type="expression" dxfId="29" priority="57">
-      <formula>ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="77" priority="37">
+      <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="56">
+    <cfRule type="expression" dxfId="76" priority="38">
       <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="55">
-      <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="75" priority="39">
+      <formula>ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AM4 AB14:AM14 AB16:AM16">
-    <cfRule type="expression" dxfId="26" priority="116">
+    <cfRule type="expression" dxfId="71" priority="55">
+      <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="56">
       <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="117">
+    <cfRule type="expression" dxfId="69" priority="57">
       <formula>ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="115">
-      <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AM6">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="64" priority="31">
       <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="63" priority="31">
       <formula>ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AM8">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="59" priority="28">
       <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="28">
+      <formula>ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AM10">
-    <cfRule type="expression" dxfId="17" priority="30">
-      <formula>ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="53" priority="28">
+      <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="52" priority="29">
       <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="28">
-      <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="51" priority="30">
+      <formula>ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AM24 AB34:AM34 AB36:AM36">
-    <cfRule type="expression" dxfId="14" priority="112">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="113">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="114">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26:AM26">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="41" priority="19">
+      <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="39" priority="19">
+      <formula>ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AM28">
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="35" priority="19">
+      <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="19">
-      <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AM30">
-    <cfRule type="expression" dxfId="5" priority="18">
+    <cfRule type="expression" dxfId="29" priority="16">
+      <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17">
-      <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:Y12">
+    <cfRule type="expression" dxfId="23" priority="10">
+      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="22" priority="11">
+      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="12">
+      <formula>ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:Y32">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AM12">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB32:AM32">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28550,20 +29126,20 @@
         <v>26</v>
       </c>
       <c r="G2" s="81"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="164" t="s">
         <v>176</v>
       </c>
       <c r="I2" s="154"/>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="164" t="s">
         <v>181</v>
       </c>
       <c r="K2" s="154"/>
       <c r="M2" s="81"/>
-      <c r="N2" s="165" t="s">
+      <c r="N2" s="164" t="s">
         <v>172</v>
       </c>
       <c r="O2" s="154"/>
-      <c r="P2" s="165" t="s">
+      <c r="P2" s="164" t="s">
         <v>171</v>
       </c>
       <c r="Q2" s="154"/>
@@ -29686,13 +30262,13 @@
     <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:K4 N4:Q4 H6:K6 N6:Q6 H8:K8 N8:Q8 H10:K10 N10:Q10 H12:K12 N12:Q12 N14:Q14 N16:Q16 N18:Q18 N20:Q20 N22:Q22 N24:Q24 N26:Q26 N28:Q28 N30:Q30 N32:Q32 N34:Q34 N36:Q36">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="116" priority="58">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="115" priority="59">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="60">
+    <cfRule type="expression" dxfId="114" priority="60">
       <formula>ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Season Analysis/5 Tables.xlsx
+++ b/Season Analysis/5 Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e325b680023b100/Documents/Georgetown University/Thesis Writer/Research/QB Worth/Season Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Georgetown University\Thesis Writer\Research\QB Worth\Season Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="6_{9351D05F-86D4-499C-8CC3-48E0D9F9BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D263688F-52B5-431F-A5BE-AD1B6168D9D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CD72B-0302-4638-9F10-DDC0A39BF9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="716" activeTab="4" xr2:uid="{A4F8EAE2-AEFB-4A27-A307-595CCA1262C5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="716" xr2:uid="{A4F8EAE2-AEFB-4A27-A307-595CCA1262C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Season Summary" sheetId="4" r:id="rId1"/>
@@ -2384,24 +2384,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2410,19 +2412,17 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2432,11 +2432,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2446,14 +2449,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="336">
+  <dxfs count="234">
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
@@ -2461,6 +2470,9 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -2511,6 +2523,9 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
@@ -2520,6 +2535,17 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -2536,9 +2562,6 @@
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
@@ -2553,18 +2576,7 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -2575,10 +2587,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -2589,10 +2604,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -2601,399 +2616,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -3018,6 +2640,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
@@ -3025,9 +2650,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -3097,6 +2719,20 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
@@ -3106,20 +2742,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -3164,15 +2786,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -3192,18 +2814,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -3215,9 +2826,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -3270,16 +2878,13 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -3290,46 +2895,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -3374,37 +2940,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
@@ -3431,17 +2966,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -4149,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79AA15-DFD0-4A60-A11A-B650EB5FABEF}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5875,7 +5399,7 @@
   <dimension ref="A1:BB62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5951,17 +5475,17 @@
       <c r="X1" s="138"/>
       <c r="Y1" s="138"/>
       <c r="Z1" s="140"/>
-      <c r="AB1" s="155" t="s">
+      <c r="AB1" s="147" t="s">
         <v>287</v>
       </c>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="155"/>
-      <c r="AJ1" s="155"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
       <c r="AL1" s="138" t="s">
         <v>277</v>
       </c>
@@ -5989,31 +5513,31 @@
       <c r="B2" s="69" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="152" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
       <c r="L2" s="29"/>
-      <c r="M2" s="151" t="s">
+      <c r="M2" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="152" t="s">
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
       <c r="V2" s="49" t="s">
         <v>255</v>
       </c>
@@ -6030,18 +5554,18 @@
         <v>422</v>
       </c>
       <c r="AB2" s="29"/>
-      <c r="AC2" s="151" t="s">
+      <c r="AC2" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="152" t="s">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
       <c r="AL2" s="2" t="s">
         <v>253</v>
       </c>
@@ -6093,18 +5617,18 @@
       <c r="B3" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="143" t="s">
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
       <c r="L3" s="30"/>
       <c r="M3" s="79" t="s">
         <v>100</v>
@@ -6165,7 +5689,7 @@
         <v>101</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>104</v>
@@ -6664,7 +6188,7 @@
       <c r="E7" s="3">
         <v>-1.0401199999999999</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="148">
         <v>0.25912784999999999</v>
       </c>
       <c r="G7" s="3">
@@ -6676,7 +6200,7 @@
       <c r="I7" s="3">
         <v>-1.5857246</v>
       </c>
-      <c r="J7" s="147">
+      <c r="J7" s="148">
         <v>0.38389648999999998</v>
       </c>
       <c r="L7" s="89" t="s">
@@ -6952,7 +6476,7 @@
         <v>6.0127410000000001</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="147">
+      <c r="F9" s="148">
         <v>0.31028009000000001</v>
       </c>
       <c r="G9" s="3">
@@ -6964,7 +6488,7 @@
       <c r="I9" s="3">
         <v>2.2246695999999999</v>
       </c>
-      <c r="J9" s="147">
+      <c r="J9" s="148">
         <v>0.30720183000000001</v>
       </c>
       <c r="L9" s="89" t="s">
@@ -7240,7 +6764,7 @@
       <c r="E11" s="3">
         <v>-1.4265587</v>
       </c>
-      <c r="F11" s="147">
+      <c r="F11" s="148">
         <v>0.21140044</v>
       </c>
       <c r="G11" s="3">
@@ -7252,7 +6776,7 @@
       <c r="I11" s="3">
         <v>-1.4058937</v>
       </c>
-      <c r="J11" s="147">
+      <c r="J11" s="148">
         <v>0.29521856000000002</v>
       </c>
       <c r="L11" s="89" t="s">
@@ -7530,7 +7054,7 @@
       <c r="E13" s="3">
         <v>-3.0093820999999998</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="148">
         <v>0.42961407000000001</v>
       </c>
       <c r="G13" s="3">
@@ -7542,7 +7066,7 @@
       <c r="I13" s="3">
         <v>-3.8585109000000002</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="148">
         <v>0.45788240000000002</v>
       </c>
       <c r="L13" s="89" t="s">
@@ -7820,7 +7344,7 @@
       <c r="E15" s="3">
         <v>-2.8875259999999998</v>
       </c>
-      <c r="F15" s="147">
+      <c r="F15" s="148">
         <v>0.35805400999999998</v>
       </c>
       <c r="G15" s="3">
@@ -7832,7 +7356,7 @@
       <c r="I15" s="3">
         <v>-4.3431306000000003</v>
       </c>
-      <c r="J15" s="147">
+      <c r="J15" s="148">
         <v>0.35787999999999998</v>
       </c>
       <c r="L15" s="89" t="s">
@@ -8110,7 +7634,7 @@
       <c r="E17" s="3">
         <v>-3.0682489999999998</v>
       </c>
-      <c r="F17" s="147">
+      <c r="F17" s="148">
         <v>0.43823079999999998</v>
       </c>
       <c r="G17" s="3">
@@ -8122,7 +7646,7 @@
       <c r="I17" s="3">
         <v>-4.0020097999999997</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="148">
         <v>0.41642667999999999</v>
       </c>
       <c r="L17" s="89" t="s">
@@ -8400,7 +7924,7 @@
       <c r="E19" s="3">
         <v>-3.0568290999999999</v>
       </c>
-      <c r="F19" s="147">
+      <c r="F19" s="148">
         <v>0.41202550999999998</v>
       </c>
       <c r="G19" s="3">
@@ -8412,7 +7936,7 @@
       <c r="I19" s="3">
         <v>-3.8864469000000001</v>
       </c>
-      <c r="J19" s="147">
+      <c r="J19" s="148">
         <v>0.40661881</v>
       </c>
       <c r="L19" s="104" t="s">
@@ -8550,7 +8074,7 @@
       <c r="E20" s="7">
         <v>0.19227363</v>
       </c>
-      <c r="F20" s="148"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="7">
         <v>0.19866344</v>
       </c>
@@ -8560,7 +8084,7 @@
       <c r="I20" s="7">
         <v>0.21277119999999999</v>
       </c>
-      <c r="J20" s="148"/>
+      <c r="J20" s="151"/>
       <c r="L20" s="89" t="s">
         <v>64</v>
       </c>
@@ -8928,7 +8452,7 @@
       <c r="E23" s="3">
         <v>-1.4753687</v>
       </c>
-      <c r="F23" s="147">
+      <c r="F23" s="148">
         <v>0.40127119</v>
       </c>
       <c r="G23" s="3">
@@ -8940,7 +8464,7 @@
       <c r="I23" s="3">
         <v>-1.7933882999999999</v>
       </c>
-      <c r="J23" s="147">
+      <c r="J23" s="148">
         <v>0.37990424</v>
       </c>
       <c r="L23" s="138" t="s">
@@ -9053,18 +8577,18 @@
       </c>
       <c r="J24" s="149"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="151" t="s">
+      <c r="M24" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="152" t="s">
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
+      <c r="R24" s="143"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
       <c r="V24" s="2"/>
       <c r="W24" s="7">
         <v>1.780292E-2</v>
@@ -9146,7 +8670,7 @@
       <c r="E25" s="3">
         <v>-3.0142468999999998</v>
       </c>
-      <c r="F25" s="147">
+      <c r="F25" s="148">
         <v>0.38772487999999999</v>
       </c>
       <c r="G25" s="3">
@@ -9158,7 +8682,7 @@
       <c r="I25" s="3">
         <v>-3.8471660000000001</v>
       </c>
-      <c r="J25" s="147">
+      <c r="J25" s="148">
         <v>0.38295632000000002</v>
       </c>
       <c r="L25" s="30"/>
@@ -9394,7 +8918,7 @@
         <v>3.4332459000000002</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="147">
+      <c r="F27" s="148">
         <v>0.35438682999999999</v>
       </c>
       <c r="G27" s="3">
@@ -9406,7 +8930,7 @@
       <c r="I27" s="3">
         <v>-4.223128</v>
       </c>
-      <c r="J27" s="147">
+      <c r="J27" s="148">
         <v>0.37536895999999997</v>
       </c>
       <c r="L27" s="89" t="s">
@@ -9646,7 +9170,7 @@
         <v>4.2519466000000001</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="147">
+      <c r="F29" s="148">
         <v>0.24082523</v>
       </c>
       <c r="G29" s="3">
@@ -9656,7 +9180,7 @@
         <v>3.8270246999999999</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="147">
+      <c r="J29" s="148">
         <v>0.32443797000000002</v>
       </c>
       <c r="L29" s="89" t="s">
@@ -9896,7 +9420,7 @@
       <c r="E31" s="3">
         <v>-2.2119838999999999</v>
       </c>
-      <c r="F31" s="147">
+      <c r="F31" s="148">
         <v>0.36058410000000002</v>
       </c>
       <c r="G31" s="3">
@@ -9908,7 +9432,7 @@
       <c r="I31" s="3">
         <v>-3.5899416</v>
       </c>
-      <c r="J31" s="147">
+      <c r="J31" s="148">
         <v>0.45656671999999998</v>
       </c>
       <c r="L31" s="89" t="s">
@@ -10152,7 +9676,7 @@
       <c r="E33" s="3">
         <v>-2.2693344999999998</v>
       </c>
-      <c r="F33" s="147">
+      <c r="F33" s="148">
         <v>0.31473572999999999</v>
       </c>
       <c r="G33" s="3">
@@ -10164,7 +9688,7 @@
       <c r="I33" s="3">
         <v>-3.3171854999999999</v>
       </c>
-      <c r="J33" s="147">
+      <c r="J33" s="148">
         <v>0.45623869</v>
       </c>
       <c r="L33" s="89" t="s">
@@ -10285,7 +9809,7 @@
       <c r="E34" s="7">
         <v>0.19797094000000001</v>
       </c>
-      <c r="F34" s="148"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="7">
         <v>0.14172409999999999</v>
       </c>
@@ -10295,7 +9819,7 @@
       <c r="I34" s="7">
         <v>0.14172409999999999</v>
       </c>
-      <c r="J34" s="148"/>
+      <c r="J34" s="151"/>
       <c r="L34" s="104" t="s">
         <v>57</v>
       </c>
@@ -10664,7 +10188,7 @@
       <c r="E37" s="3">
         <v>-1.7684222000000001</v>
       </c>
-      <c r="F37" s="147">
+      <c r="F37" s="148">
         <v>0.66809394</v>
       </c>
       <c r="G37" s="3">
@@ -10676,7 +10200,7 @@
       <c r="I37" s="3">
         <v>-1.9696597</v>
       </c>
-      <c r="J37" s="147">
+      <c r="J37" s="148">
         <v>0.53297232000000005</v>
       </c>
       <c r="L37" s="89" t="s">
@@ -10920,7 +10444,7 @@
       <c r="E39" s="3">
         <v>-0.79849232000000003</v>
       </c>
-      <c r="F39" s="147">
+      <c r="F39" s="148">
         <v>0.71378786000000005</v>
       </c>
       <c r="G39" s="3">
@@ -10932,7 +10456,7 @@
       <c r="I39" s="3">
         <v>-1.4277393</v>
       </c>
-      <c r="J39" s="147">
+      <c r="J39" s="148">
         <v>0.30116870000000001</v>
       </c>
       <c r="L39" s="89" t="s">
@@ -11053,7 +10577,7 @@
       <c r="E40" s="7">
         <v>5.8795159999999999E-2</v>
       </c>
-      <c r="F40" s="148"/>
+      <c r="F40" s="151"/>
       <c r="G40" s="82">
         <v>9.1389789999999999E-2</v>
       </c>
@@ -11063,7 +10587,7 @@
       <c r="I40" s="82">
         <v>9.1389789999999999E-2</v>
       </c>
-      <c r="J40" s="148"/>
+      <c r="J40" s="151"/>
       <c r="L40" s="89" t="s">
         <v>62</v>
       </c>
@@ -11802,18 +11326,18 @@
       <c r="B47" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="145" t="s">
+      <c r="C47" s="154" t="s">
         <v>431</v>
       </c>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="145" t="s">
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="154" t="s">
         <v>431</v>
       </c>
-      <c r="H47" s="145"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
       <c r="M47" s="119">
         <v>0.12214509</v>
       </c>
@@ -11894,18 +11418,18 @@
       <c r="B48" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="143" t="s">
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="143"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
       <c r="M48" s="119">
         <v>2.2909800000000002E-3</v>
       </c>
@@ -11974,18 +11498,18 @@
       </c>
     </row>
     <row r="49" spans="1:54" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="141" t="s">
+      <c r="A49" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="141"/>
-      <c r="I49" s="141"/>
-      <c r="J49" s="141"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
       <c r="M49" s="119">
         <v>8.8941699999999999E-3</v>
       </c>
@@ -12072,13 +11596,13 @@
       <c r="R50" s="119">
         <v>9.0330949999999993E-2</v>
       </c>
-      <c r="V50" s="141" t="s">
+      <c r="V50" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="W50" s="141"/>
-      <c r="X50" s="141"/>
-      <c r="Y50" s="142"/>
-      <c r="Z50" s="142"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="153"/>
+      <c r="Z50" s="153"/>
       <c r="AL50" s="73"/>
       <c r="AM50" s="74" t="s">
         <v>97</v>
@@ -12527,27 +12051,27 @@
       <c r="R58" s="119">
         <v>8.3981120000000006E-2</v>
       </c>
-      <c r="AL58" s="141" t="s">
+      <c r="AL58" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="AM58" s="141"/>
-      <c r="AN58" s="141"/>
-      <c r="AO58" s="141"/>
-      <c r="AP58" s="141"/>
-      <c r="AR58" s="141" t="s">
+      <c r="AM58" s="152"/>
+      <c r="AN58" s="152"/>
+      <c r="AO58" s="152"/>
+      <c r="AP58" s="152"/>
+      <c r="AR58" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="AS58" s="141"/>
-      <c r="AT58" s="141"/>
-      <c r="AU58" s="141"/>
-      <c r="AV58" s="141"/>
-      <c r="AX58" s="141" t="s">
+      <c r="AS58" s="152"/>
+      <c r="AT58" s="152"/>
+      <c r="AU58" s="152"/>
+      <c r="AV58" s="152"/>
+      <c r="AX58" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="AY58" s="141"/>
-      <c r="AZ58" s="141"/>
-      <c r="BA58" s="141"/>
-      <c r="BB58" s="141"/>
+      <c r="AY58" s="152"/>
+      <c r="AZ58" s="152"/>
+      <c r="BA58" s="152"/>
+      <c r="BB58" s="152"/>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="M59" s="119">
@@ -12607,53 +12131,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="L23:T23"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="J29:J30"/>
     <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="AX58:BB58"/>
     <mergeCell ref="AL58:AP58"/>
@@ -12670,301 +12147,348 @@
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="J35:J36"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
   </mergeCells>
   <conditionalFormatting sqref="B37:E37 G37:I37 Y45:Z45 AS47:AV47">
-    <cfRule type="expression" dxfId="335" priority="87">
+    <cfRule type="expression" dxfId="233" priority="87">
       <formula>ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="86">
+    <cfRule type="expression" dxfId="232" priority="86">
       <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="85">
+    <cfRule type="expression" dxfId="231" priority="85">
       <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E41 G41:I41">
-    <cfRule type="expression" dxfId="332" priority="71">
+    <cfRule type="expression" dxfId="230" priority="71">
       <formula>AND(ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B41/B42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="70">
+    <cfRule type="expression" dxfId="229" priority="70">
       <formula>AND(ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B41/B42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="72">
+    <cfRule type="expression" dxfId="228" priority="72">
       <formula>ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43 G43:I43">
-    <cfRule type="expression" dxfId="329" priority="68">
+    <cfRule type="expression" dxfId="227" priority="68">
       <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="69">
+    <cfRule type="expression" dxfId="226" priority="69">
       <formula>ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="67">
+    <cfRule type="expression" dxfId="225" priority="67">
       <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W47:X47">
-    <cfRule type="expression" dxfId="326" priority="25">
+    <cfRule type="expression" dxfId="224" priority="25">
       <formula>AND(ABS(W47/W45)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W47/W45)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="26">
+    <cfRule type="expression" dxfId="223" priority="26">
       <formula>AND(ABS(W47/W45)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W47/W45)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="27">
+    <cfRule type="expression" dxfId="222" priority="27">
       <formula>ABS(W47/W45)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:X49">
-    <cfRule type="expression" dxfId="323" priority="22">
+    <cfRule type="expression" dxfId="221" priority="22">
       <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="23">
+    <cfRule type="expression" dxfId="220" priority="23">
       <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="24">
+    <cfRule type="expression" dxfId="219" priority="24">
       <formula>ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:Z3 B5:E5 G5:I5 W5:Z5 B7:E7 G7:I7 W7:Z7 B9:E9 G9:I9 W9:Z9 B11:E11 G11:I11 W11:Z11 B13:E13 G13:I13 W13:Z13 B15:E15 G15:I15 W15:Z15 B17:E17 G17:I17 W17:Z17 B19:E19 G19:I19 W19:Z19 B21:E21 G21:I21 W21:Z21 B23:E23 G23:I23 W23:Z23 B25:E25 G25:I25 W25:Z25 B27:E27 G27:I27 W27:Z27 B29:E29 G29:I29 W29:Z29 B31:E31 G31:I31 W31:Z31 B33:E33 G33:I33 W33:Z33 B35:E35 G35:I35 W35:Z35 W37:Z37 B39:E39 G39:I39 B45:E45 G45:I45 AM45:AP45 AS45:AV45">
-    <cfRule type="expression" dxfId="320" priority="108">
+    <cfRule type="expression" dxfId="218" priority="108">
       <formula>ABS(B3/B4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="107">
+    <cfRule type="expression" dxfId="217" priority="107">
       <formula>AND(ABS(B3/B4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B3/B4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="106">
+    <cfRule type="expression" dxfId="216" priority="106">
       <formula>AND(ABS(B3/B4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B3/B4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Z39">
-    <cfRule type="expression" dxfId="317" priority="59">
+    <cfRule type="expression" dxfId="215" priority="59">
       <formula>AND(ABS(W39/W40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W39/W40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="60">
+    <cfRule type="expression" dxfId="214" priority="60">
       <formula>ABS(W39/W40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="58">
+    <cfRule type="expression" dxfId="213" priority="58">
       <formula>AND(ABS(W39/W40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W39/W40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41:Z41">
-    <cfRule type="expression" dxfId="314" priority="63">
+    <cfRule type="expression" dxfId="212" priority="63">
       <formula>ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="62">
+    <cfRule type="expression" dxfId="211" priority="62">
       <formula>AND(ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W41/W42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="61">
+    <cfRule type="expression" dxfId="210" priority="61">
       <formula>AND(ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W41/W42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43:Z43">
-    <cfRule type="expression" dxfId="311" priority="66">
+    <cfRule type="expression" dxfId="209" priority="66">
       <formula>ABS(W43/W44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="65">
+    <cfRule type="expression" dxfId="208" priority="65">
       <formula>AND(ABS(W43/W44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W43/W44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="64">
+    <cfRule type="expression" dxfId="207" priority="64">
       <formula>AND(ABS(W43/W44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W43/W44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AP3 AM5:AP5 AM7:AP7 AM9:AP9 AM11:AP11 AM13:AP13 AM15:AP15 AM17:AP17 AM19:AP19 AM21:AP21 AM23:AP23 AM25:AP25 AM27:AP27 AM29:AP29 AM31:AP31 AM33:AP33 AM37:AP37 AM43:AP43 AM49:AP49 AM51:AP51 AM55:AP55">
-    <cfRule type="expression" dxfId="308" priority="102">
+    <cfRule type="expression" dxfId="206" priority="102">
       <formula>ABS(AM3/AM4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="101">
+    <cfRule type="expression" dxfId="205" priority="101">
       <formula>AND(ABS(AM3/AM4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM3/AM4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="100">
+    <cfRule type="expression" dxfId="204" priority="100">
       <formula>AND(ABS(AM3/AM4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM3/AM4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM35:AP35">
-    <cfRule type="expression" dxfId="305" priority="84">
+    <cfRule type="expression" dxfId="203" priority="84">
       <formula>ABS(AM35/AM36)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="83">
+    <cfRule type="expression" dxfId="202" priority="83">
       <formula>AND(ABS(AM35/AM36)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM35/AM36)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="82">
+    <cfRule type="expression" dxfId="201" priority="82">
       <formula>AND(ABS(AM35/AM36)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM35/AM36)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39:AP39">
-    <cfRule type="expression" dxfId="302" priority="54">
+    <cfRule type="expression" dxfId="200" priority="54">
       <formula>ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="53">
+    <cfRule type="expression" dxfId="199" priority="53">
       <formula>AND(ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM39/AM40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="52">
+    <cfRule type="expression" dxfId="198" priority="52">
       <formula>AND(ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM39/AM40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM41:AP41">
-    <cfRule type="expression" dxfId="299" priority="56">
+    <cfRule type="expression" dxfId="197" priority="56">
       <formula>AND(ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM41/AM42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="57">
+    <cfRule type="expression" dxfId="196" priority="57">
       <formula>ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="55">
+    <cfRule type="expression" dxfId="195" priority="55">
       <formula>AND(ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM41/AM42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM47:AP47">
-    <cfRule type="expression" dxfId="296" priority="110">
+    <cfRule type="expression" dxfId="194" priority="110">
       <formula>AND(ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM47/AM48)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="109">
+    <cfRule type="expression" dxfId="193" priority="109">
       <formula>AND(ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM47/AM48)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="111">
+    <cfRule type="expression" dxfId="192" priority="111">
       <formula>ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM53:AP53">
-    <cfRule type="expression" dxfId="293" priority="99">
+    <cfRule type="expression" dxfId="191" priority="99">
       <formula>ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="98">
+    <cfRule type="expression" dxfId="190" priority="98">
       <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="97">
+    <cfRule type="expression" dxfId="189" priority="97">
       <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AV3 AS5:AV5 AS7:AV7 AS9:AV9 AS11:AV11 AS13:AV13 AS15:AV15 AS17:AV17 AS19:AV19 AS21:AV21 AS23:AV23 AS25:AV25 AS27:AV27 AS29:AV29 AS31:AV31 AS33:AV33 AS37:AV37 AS43:AV43 AS49:AV49 AS51:AV51 AS55:AV55">
-    <cfRule type="expression" dxfId="290" priority="105">
+    <cfRule type="expression" dxfId="188" priority="105">
       <formula>ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="104">
+    <cfRule type="expression" dxfId="187" priority="104">
       <formula>AND(ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS3/AS4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="103">
+    <cfRule type="expression" dxfId="186" priority="103">
       <formula>AND(ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS3/AS4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AV35">
-    <cfRule type="expression" dxfId="287" priority="81">
+    <cfRule type="expression" dxfId="185" priority="81">
       <formula>ABS(AS35/AS36)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="79">
+    <cfRule type="expression" dxfId="184" priority="79">
       <formula>AND(ABS(AS35/AS36)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS35/AS36)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="80">
+    <cfRule type="expression" dxfId="183" priority="80">
       <formula>AND(ABS(AS35/AS36)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS35/AS36)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS39:AV39">
-    <cfRule type="expression" dxfId="284" priority="46">
+    <cfRule type="expression" dxfId="182" priority="46">
       <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="48">
+    <cfRule type="expression" dxfId="181" priority="48">
       <formula>ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="47">
+    <cfRule type="expression" dxfId="180" priority="47">
       <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS41:AV41">
-    <cfRule type="expression" dxfId="281" priority="49">
+    <cfRule type="expression" dxfId="179" priority="49">
       <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="50">
+    <cfRule type="expression" dxfId="178" priority="50">
       <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="51">
+    <cfRule type="expression" dxfId="177" priority="51">
       <formula>ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS53:AV53">
-    <cfRule type="expression" dxfId="278" priority="94">
+    <cfRule type="expression" dxfId="176" priority="94">
       <formula>AND(ABS(AS53/AS54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS53/AS54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="95">
+    <cfRule type="expression" dxfId="175" priority="95">
       <formula>AND(ABS(AS53/AS54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS53/AS54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="96">
+    <cfRule type="expression" dxfId="174" priority="96">
       <formula>ABS(AS53/AS54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:BB3 AY5:BB5 AY7:BB7 AY9:BB9 AY11:BB11 AY13:BB13 AY15:BB15 AY17:BB17 AY19:BB19 AY21:BB21 AY23:BB23 AY25:BB25 AY27:BB27 AY29:BB29 AY31:BB31 AY33:BB33 AY37:BB37 AY43:BB43 AY49:BB49 AY51:BB51 AY55:BB55">
-    <cfRule type="expression" dxfId="275" priority="18">
+    <cfRule type="expression" dxfId="173" priority="18">
       <formula>ABS(AY3/AY4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="17">
+    <cfRule type="expression" dxfId="172" priority="17">
       <formula>AND(ABS(AY3/AY4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY3/AY4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="16">
+    <cfRule type="expression" dxfId="171" priority="16">
       <formula>AND(ABS(AY3/AY4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY3/AY4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY35:BB35">
-    <cfRule type="expression" dxfId="272" priority="7">
+    <cfRule type="expression" dxfId="170" priority="7">
       <formula>AND(ABS(AY35/AY36)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY35/AY36)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="9">
+    <cfRule type="expression" dxfId="169" priority="9">
       <formula>ABS(AY35/AY36)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="8">
+    <cfRule type="expression" dxfId="168" priority="8">
       <formula>AND(ABS(AY35/AY36)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY35/AY36)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY39:BB39">
-    <cfRule type="expression" dxfId="269" priority="2">
+    <cfRule type="expression" dxfId="167" priority="2">
       <formula>AND(ABS(AY39/AY40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY39/AY40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="1">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>AND(ABS(AY39/AY40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY39/AY40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="3">
+    <cfRule type="expression" dxfId="165" priority="3">
       <formula>ABS(AY39/AY40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY41:BB41">
-    <cfRule type="expression" dxfId="266" priority="6">
+    <cfRule type="expression" dxfId="164" priority="6">
       <formula>ABS(AY41/AY42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="5">
+    <cfRule type="expression" dxfId="163" priority="5">
       <formula>AND(ABS(AY41/AY42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY41/AY42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="4">
+    <cfRule type="expression" dxfId="162" priority="4">
       <formula>AND(ABS(AY41/AY42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY41/AY42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY45:BB45">
-    <cfRule type="expression" dxfId="263" priority="20">
+    <cfRule type="expression" dxfId="161" priority="20">
       <formula>AND(ABS(AY45/AY46)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY45/AY46)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="19">
+    <cfRule type="expression" dxfId="160" priority="19">
       <formula>AND(ABS(AY45/AY46)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY45/AY46)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="21">
+    <cfRule type="expression" dxfId="159" priority="21">
       <formula>ABS(AY45/AY46)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY47:BB47">
-    <cfRule type="expression" dxfId="260" priority="11">
+    <cfRule type="expression" dxfId="158" priority="11">
       <formula>AND(ABS(AY47/AY48)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY47/AY48)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="12">
+    <cfRule type="expression" dxfId="157" priority="12">
       <formula>ABS(AY47/AY48)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="10">
+    <cfRule type="expression" dxfId="156" priority="10">
       <formula>AND(ABS(AY47/AY48)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY47/AY48)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY53:BB53">
-    <cfRule type="expression" dxfId="257" priority="14">
+    <cfRule type="expression" dxfId="155" priority="14">
       <formula>AND(ABS(AY53/AY54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AY53/AY54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="13">
+    <cfRule type="expression" dxfId="154" priority="13">
       <formula>AND(ABS(AY53/AY54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AY53/AY54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="15">
+    <cfRule type="expression" dxfId="153" priority="15">
       <formula>ABS(AY53/AY54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13117,28 +12641,28 @@
       <c r="B2" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="157"/>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
       <c r="K2" s="32"/>
       <c r="L2" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="157"/>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
       <c r="U2" s="2"/>
       <c r="V2" s="69" t="s">
         <v>469</v>
@@ -13146,18 +12670,18 @@
       <c r="W2" s="69" t="s">
         <v>534</v>
       </c>
-      <c r="X2" s="152" t="s">
+      <c r="X2" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="152" t="s">
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="69" t="s">
         <v>470</v>
@@ -13165,44 +12689,44 @@
       <c r="AI2" s="69" t="s">
         <v>535</v>
       </c>
-      <c r="AJ2" s="152" t="s">
+      <c r="AJ2" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="154"/>
-      <c r="AM2" s="154"/>
-      <c r="AN2" s="152" t="s">
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="144"/>
+      <c r="AN2" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="144"/>
       <c r="AS2" s="29"/>
-      <c r="AT2" s="151" t="s">
+      <c r="AT2" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="153"/>
-      <c r="AX2" s="152" t="s">
+      <c r="AU2" s="143"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="146"/>
+      <c r="AX2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="152"/>
+      <c r="AY2" s="143"/>
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="143"/>
       <c r="BC2" s="29"/>
-      <c r="BD2" s="151" t="s">
+      <c r="BD2" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="BE2" s="152"/>
-      <c r="BF2" s="152"/>
-      <c r="BG2" s="153"/>
-      <c r="BH2" s="152" t="s">
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="146"/>
+      <c r="BH2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="BI2" s="152"/>
-      <c r="BJ2" s="152"/>
-      <c r="BK2" s="152"/>
+      <c r="BI2" s="143"/>
+      <c r="BJ2" s="143"/>
+      <c r="BK2" s="143"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="80"/>
@@ -13262,18 +12786,18 @@
       <c r="W3" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="X3" s="143" t="s">
+      <c r="X3" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="143" t="s">
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="70" t="s">
         <v>251</v>
@@ -13281,18 +12805,18 @@
       <c r="AI3" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="AJ3" s="143" t="s">
+      <c r="AJ3" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="143" t="s">
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="144"/>
-      <c r="AQ3" s="144"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
       <c r="AS3" s="30"/>
       <c r="AT3" s="79" t="s">
         <v>100</v>
@@ -13969,7 +13493,7 @@
       <c r="Z7" s="3">
         <v>-2.2959244999999999</v>
       </c>
-      <c r="AA7" s="147">
+      <c r="AA7" s="148">
         <v>0.20386672</v>
       </c>
       <c r="AB7" s="3">
@@ -13981,7 +13505,7 @@
       <c r="AD7" s="3">
         <v>-1.2425793999999999</v>
       </c>
-      <c r="AE7" s="147">
+      <c r="AE7" s="148">
         <v>0.41750284999999998</v>
       </c>
       <c r="AG7" s="2" t="s">
@@ -14000,7 +13524,7 @@
         <v>4.9932213000000001</v>
       </c>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="147">
+      <c r="AM7" s="148">
         <v>0.34774621999999999</v>
       </c>
       <c r="AN7" s="3">
@@ -14010,7 +13534,7 @@
         <v>3.3979898999999998</v>
       </c>
       <c r="AP7" s="3"/>
-      <c r="AQ7" s="147">
+      <c r="AQ7" s="148">
         <v>0.34587569000000001</v>
       </c>
       <c r="AS7" s="89" t="s">
@@ -14323,7 +13847,7 @@
         <v>6.0415562999999999</v>
       </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="147">
+      <c r="AA9" s="148">
         <v>0.32640198999999998</v>
       </c>
       <c r="AB9" s="3">
@@ -14335,7 +13859,7 @@
       <c r="AD9" s="3">
         <v>2.4911477999999998</v>
       </c>
-      <c r="AE9" s="147">
+      <c r="AE9" s="148">
         <v>0.33903292000000002</v>
       </c>
       <c r="AG9" s="2" t="s">
@@ -14354,7 +13878,7 @@
         <v>5.9689528000000003</v>
       </c>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="147">
+      <c r="AM9" s="148">
         <v>0.29169547000000001</v>
       </c>
       <c r="AN9" s="3">
@@ -14364,7 +13888,7 @@
         <v>5.1921322999999999</v>
       </c>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="147">
+      <c r="AQ9" s="148">
         <v>0.26474793000000002</v>
       </c>
       <c r="AS9" s="89" t="s">
@@ -14677,7 +14201,7 @@
       <c r="Z11" s="3">
         <v>-1.2191386</v>
       </c>
-      <c r="AA11" s="147">
+      <c r="AA11" s="148">
         <v>0.18247405</v>
       </c>
       <c r="AB11" s="3">
@@ -14689,7 +14213,7 @@
       <c r="AD11" s="3">
         <v>-1.4733613000000001</v>
       </c>
-      <c r="AE11" s="147">
+      <c r="AE11" s="148">
         <v>0.31181162000000001</v>
       </c>
       <c r="AG11" s="2" t="s">
@@ -14710,7 +14234,7 @@
       <c r="AL11" s="3">
         <v>-1.6027203999999999</v>
       </c>
-      <c r="AM11" s="147">
+      <c r="AM11" s="148">
         <v>0.24394874</v>
       </c>
       <c r="AN11" s="3">
@@ -14722,7 +14246,7 @@
       <c r="AP11" s="3">
         <v>-1.3431584000000001</v>
       </c>
-      <c r="AQ11" s="147">
+      <c r="AQ11" s="148">
         <v>0.27774025000000002</v>
       </c>
       <c r="AS11" s="89" t="s">
@@ -15041,7 +14565,7 @@
       <c r="Z13" s="3">
         <v>-3.2546655000000002</v>
       </c>
-      <c r="AA13" s="147">
+      <c r="AA13" s="148">
         <v>0.48043432000000003</v>
       </c>
       <c r="AB13" s="3">
@@ -15053,7 +14577,7 @@
       <c r="AD13" s="3">
         <v>-3.7650136999999999</v>
       </c>
-      <c r="AE13" s="147">
+      <c r="AE13" s="148">
         <v>0.49920089000000001</v>
       </c>
       <c r="AG13" s="2" t="s">
@@ -15074,7 +14598,7 @@
       <c r="AL13" s="3">
         <v>-2.7813089999999998</v>
       </c>
-      <c r="AM13" s="147">
+      <c r="AM13" s="148">
         <v>0.37768997999999998</v>
       </c>
       <c r="AN13" s="3">
@@ -15086,7 +14610,7 @@
       <c r="AP13" s="3">
         <v>-3.8977121000000001</v>
       </c>
-      <c r="AQ13" s="147">
+      <c r="AQ13" s="148">
         <v>0.40678292999999999</v>
       </c>
       <c r="AS13" s="89" t="s">
@@ -15405,7 +14929,7 @@
       <c r="Z15" s="3">
         <v>-3.4124067</v>
       </c>
-      <c r="AA15" s="147">
+      <c r="AA15" s="148">
         <v>0.31292398999999999</v>
       </c>
       <c r="AB15" s="3">
@@ -15417,7 +14941,7 @@
       <c r="AD15" s="3">
         <v>-4.3211896999999997</v>
       </c>
-      <c r="AE15" s="147">
+      <c r="AE15" s="148">
         <v>0.38145465000000001</v>
       </c>
       <c r="AG15" s="2" t="s">
@@ -15438,7 +14962,7 @@
       <c r="AL15" s="3">
         <v>-2.4647035000000002</v>
       </c>
-      <c r="AM15" s="147">
+      <c r="AM15" s="148">
         <v>0.40201416000000001</v>
       </c>
       <c r="AN15" s="3">
@@ -15450,7 +14974,7 @@
       <c r="AP15" s="3">
         <v>-4.7538912</v>
       </c>
-      <c r="AQ15" s="147">
+      <c r="AQ15" s="148">
         <v>0.33127109999999999</v>
       </c>
       <c r="AS15" s="89" t="s">
@@ -15769,7 +15293,7 @@
       <c r="Z17" s="3">
         <v>-3.3162715</v>
       </c>
-      <c r="AA17" s="147">
+      <c r="AA17" s="148">
         <v>0.44465247000000002</v>
       </c>
       <c r="AB17" s="3">
@@ -15781,7 +15305,7 @@
       <c r="AD17" s="3">
         <v>-4.1037802000000001</v>
       </c>
-      <c r="AE17" s="147">
+      <c r="AE17" s="148">
         <v>0.42459750000000002</v>
       </c>
       <c r="AG17" s="2" t="s">
@@ -15802,7 +15326,7 @@
       <c r="AL17" s="3">
         <v>-2.8062049</v>
       </c>
-      <c r="AM17" s="147">
+      <c r="AM17" s="148">
         <v>0.43613853000000002</v>
       </c>
       <c r="AN17" s="3">
@@ -15814,7 +15338,7 @@
       <c r="AP17" s="3">
         <v>-4.2014369</v>
       </c>
-      <c r="AQ17" s="147">
+      <c r="AQ17" s="148">
         <v>0.41897726000000002</v>
       </c>
       <c r="AS17" s="89" t="s">
@@ -16133,7 +15657,7 @@
       <c r="Z19" s="3">
         <v>-3.1351784</v>
       </c>
-      <c r="AA19" s="147">
+      <c r="AA19" s="148">
         <v>0.44387771999999998</v>
       </c>
       <c r="AB19" s="3">
@@ -16145,7 +15669,7 @@
       <c r="AD19" s="3">
         <v>-4.1548777000000001</v>
       </c>
-      <c r="AE19" s="147">
+      <c r="AE19" s="148">
         <v>0.45208229</v>
       </c>
       <c r="AG19" s="2" t="s">
@@ -16166,7 +15690,7 @@
       <c r="AL19" s="3">
         <v>-2.9690186000000001</v>
       </c>
-      <c r="AM19" s="147">
+      <c r="AM19" s="148">
         <v>0.38503230999999999</v>
       </c>
       <c r="AN19" s="3">
@@ -16178,7 +15702,7 @@
       <c r="AP19" s="3">
         <v>-3.6408680000000002</v>
       </c>
-      <c r="AQ19" s="147">
+      <c r="AQ19" s="148">
         <v>0.35177064000000002</v>
       </c>
       <c r="AS19" s="104" t="s">
@@ -16319,7 +15843,7 @@
       <c r="Z20" s="7">
         <v>0.24378762000000001</v>
       </c>
-      <c r="AA20" s="148"/>
+      <c r="AA20" s="151"/>
       <c r="AB20" s="7">
         <v>0.28450373000000001</v>
       </c>
@@ -16329,7 +15853,7 @@
       <c r="AD20" s="7">
         <v>0.30103115000000003</v>
       </c>
-      <c r="AE20" s="148"/>
+      <c r="AE20" s="151"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="51">
         <v>6.3467659999999995E-2</v>
@@ -16346,7 +15870,7 @@
       <c r="AL20" s="7">
         <v>0.23993886</v>
       </c>
-      <c r="AM20" s="148"/>
+      <c r="AM20" s="151"/>
       <c r="AN20" s="7">
         <v>0.25296301999999998</v>
       </c>
@@ -16356,7 +15880,7 @@
       <c r="AP20" s="7">
         <v>0.25296301999999998</v>
       </c>
-      <c r="AQ20" s="148"/>
+      <c r="AQ20" s="151"/>
       <c r="AS20" s="89" t="s">
         <v>64</v>
       </c>
@@ -16715,7 +16239,7 @@
       <c r="Z23" s="3">
         <v>-1.6185541999999999</v>
       </c>
-      <c r="AA23" s="147">
+      <c r="AA23" s="148">
         <v>0.39641804000000003</v>
       </c>
       <c r="AB23" s="3">
@@ -16727,7 +16251,7 @@
       <c r="AD23" s="3">
         <v>-0.28163722000000002</v>
       </c>
-      <c r="AE23" s="147">
+      <c r="AE23" s="148">
         <v>0.39176251000000001</v>
       </c>
       <c r="AG23" s="2" t="s">
@@ -16748,7 +16272,7 @@
       <c r="AL23" s="3">
         <v>-1.4163589999999999</v>
       </c>
-      <c r="AM23" s="147">
+      <c r="AM23" s="148">
         <v>0.40976248999999998</v>
       </c>
       <c r="AN23" s="3">
@@ -16760,7 +16284,7 @@
       <c r="AP23" s="3">
         <v>-5.5315522000000001</v>
       </c>
-      <c r="AQ23" s="147">
+      <c r="AQ23" s="148">
         <v>0.37080268</v>
       </c>
       <c r="AS23" s="138" t="s">
@@ -16866,31 +16390,31 @@
       </c>
       <c r="AQ24" s="149"/>
       <c r="AS24" s="29"/>
-      <c r="AT24" s="151" t="s">
+      <c r="AT24" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="AU24" s="152"/>
-      <c r="AV24" s="152"/>
-      <c r="AW24" s="153"/>
-      <c r="AX24" s="152" t="s">
+      <c r="AU24" s="143"/>
+      <c r="AV24" s="143"/>
+      <c r="AW24" s="146"/>
+      <c r="AX24" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="AY24" s="152"/>
-      <c r="AZ24" s="152"/>
-      <c r="BA24" s="152"/>
+      <c r="AY24" s="143"/>
+      <c r="AZ24" s="143"/>
+      <c r="BA24" s="143"/>
       <c r="BC24" s="29"/>
-      <c r="BD24" s="151" t="s">
+      <c r="BD24" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="BE24" s="152"/>
-      <c r="BF24" s="152"/>
-      <c r="BG24" s="153"/>
-      <c r="BH24" s="152" t="s">
+      <c r="BE24" s="143"/>
+      <c r="BF24" s="143"/>
+      <c r="BG24" s="146"/>
+      <c r="BH24" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="BI24" s="152"/>
-      <c r="BJ24" s="152"/>
-      <c r="BK24" s="152"/>
+      <c r="BI24" s="143"/>
+      <c r="BJ24" s="143"/>
+      <c r="BK24" s="143"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="119">
@@ -16935,7 +16459,7 @@
       <c r="Z25" s="3">
         <v>-3.2128934999999998</v>
       </c>
-      <c r="AA25" s="147">
+      <c r="AA25" s="148">
         <v>0.37410474999999999</v>
       </c>
       <c r="AB25" s="3">
@@ -16947,7 +16471,7 @@
       <c r="AD25" s="3">
         <v>-3.3718241</v>
       </c>
-      <c r="AE25" s="147">
+      <c r="AE25" s="148">
         <v>0.38510643999999999</v>
       </c>
       <c r="AG25" s="2" t="s">
@@ -16968,7 +16492,7 @@
       <c r="AL25" s="3">
         <v>-2.7976144000000001</v>
       </c>
-      <c r="AM25" s="147">
+      <c r="AM25" s="148">
         <v>0.40738722999999999</v>
       </c>
       <c r="AN25" s="3">
@@ -16980,7 +16504,7 @@
       <c r="AP25" s="3">
         <v>-4.3376080000000004</v>
       </c>
-      <c r="AQ25" s="147">
+      <c r="AQ25" s="148">
         <v>0.38376653999999999</v>
       </c>
       <c r="AS25" s="30"/>
@@ -17217,7 +16741,7 @@
         <v>3.4494843999999998</v>
       </c>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="147">
+      <c r="AA27" s="148">
         <v>0.34291368999999999</v>
       </c>
       <c r="AB27" s="3">
@@ -17229,7 +16753,7 @@
       <c r="AD27" s="3">
         <v>-3.1772776999999999</v>
       </c>
-      <c r="AE27" s="147">
+      <c r="AE27" s="148">
         <v>0.33275264999999998</v>
       </c>
       <c r="AG27" s="2" t="s">
@@ -17248,7 +16772,7 @@
         <v>3.4267108999999998</v>
       </c>
       <c r="AL27" s="3"/>
-      <c r="AM27" s="147">
+      <c r="AM27" s="148">
         <v>0.36709810999999998</v>
       </c>
       <c r="AN27" s="3">
@@ -17260,7 +16784,7 @@
       <c r="AP27" s="3">
         <v>-4.4847023000000004</v>
       </c>
-      <c r="AQ27" s="147">
+      <c r="AQ27" s="148">
         <v>0.39169320000000002</v>
       </c>
       <c r="AS27" s="89" t="s">
@@ -17505,7 +17029,7 @@
         <v>3.4815537000000001</v>
       </c>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="147">
+      <c r="AA29" s="148">
         <v>0.16517567</v>
       </c>
       <c r="AB29" s="3">
@@ -17515,7 +17039,7 @@
         <v>3.4955067999999998</v>
       </c>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="147">
+      <c r="AE29" s="148">
         <v>0.28562335</v>
       </c>
       <c r="AG29" s="2" t="s">
@@ -17534,7 +17058,7 @@
         <v>4.9043510000000001</v>
       </c>
       <c r="AL29" s="3"/>
-      <c r="AM29" s="147">
+      <c r="AM29" s="148">
         <v>0.30660643999999998</v>
       </c>
       <c r="AN29" s="3">
@@ -17544,7 +17068,7 @@
         <v>4.2490515000000002</v>
       </c>
       <c r="AP29" s="3"/>
-      <c r="AQ29" s="147">
+      <c r="AQ29" s="148">
         <v>0.37372747000000001</v>
       </c>
       <c r="AS29" s="89" t="s">
@@ -17787,7 +17311,7 @@
       <c r="Z31" s="3">
         <v>-2.1276937999999999</v>
       </c>
-      <c r="AA31" s="147">
+      <c r="AA31" s="148">
         <v>0.39945459999999999</v>
       </c>
       <c r="AB31" s="3">
@@ -17799,7 +17323,7 @@
       <c r="AD31" s="3">
         <v>-3.9147251999999999</v>
       </c>
-      <c r="AE31" s="147">
+      <c r="AE31" s="148">
         <v>0.46402284999999999</v>
       </c>
       <c r="AG31" s="2" t="s">
@@ -17820,7 +17344,7 @@
       <c r="AL31" s="3">
         <v>-2.2778201</v>
       </c>
-      <c r="AM31" s="147">
+      <c r="AM31" s="148">
         <v>0.32486886999999998</v>
       </c>
       <c r="AN31" s="3">
@@ -17832,7 +17356,7 @@
       <c r="AP31" s="3">
         <v>-3.2218214000000001</v>
       </c>
-      <c r="AQ31" s="147">
+      <c r="AQ31" s="148">
         <v>0.46074983000000003</v>
       </c>
       <c r="AS31" s="89" t="s">
@@ -18083,7 +17607,7 @@
       <c r="Z33" s="3">
         <v>-2.334784</v>
       </c>
-      <c r="AA33" s="147">
+      <c r="AA33" s="148">
         <v>0.33241436000000002</v>
       </c>
       <c r="AB33" s="3">
@@ -18095,7 +17619,7 @@
       <c r="AD33" s="3">
         <v>-3.4088516000000002</v>
       </c>
-      <c r="AE33" s="147">
+      <c r="AE33" s="148">
         <v>0.44722906000000001</v>
       </c>
       <c r="AG33" s="2" t="s">
@@ -18116,7 +17640,7 @@
       <c r="AL33" s="3">
         <v>-2.1748533999999999</v>
       </c>
-      <c r="AM33" s="147">
+      <c r="AM33" s="148">
         <v>0.30655537999999999</v>
       </c>
       <c r="AN33" s="3">
@@ -18128,7 +17652,7 @@
       <c r="AP33" s="3">
         <v>-3.2405157999999998</v>
       </c>
-      <c r="AQ33" s="147">
+      <c r="AQ33" s="148">
         <v>0.46349642000000002</v>
       </c>
       <c r="AS33" s="89" t="s">
@@ -18235,7 +17759,7 @@
       <c r="Z34" s="7">
         <v>0.23548462000000001</v>
       </c>
-      <c r="AA34" s="148"/>
+      <c r="AA34" s="151"/>
       <c r="AB34" s="7">
         <v>0.23205834</v>
       </c>
@@ -18245,7 +17769,7 @@
       <c r="AD34" s="7">
         <v>0.23205834</v>
       </c>
-      <c r="AE34" s="148"/>
+      <c r="AE34" s="151"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="51">
         <v>3.4601109999999997E-2</v>
@@ -18262,7 +17786,7 @@
       <c r="AL34" s="7">
         <v>0.25016914000000001</v>
       </c>
-      <c r="AM34" s="148"/>
+      <c r="AM34" s="151"/>
       <c r="AN34" s="7">
         <v>0.19473562</v>
       </c>
@@ -18272,7 +17796,7 @@
       <c r="AP34" s="7">
         <v>0.19473562</v>
       </c>
-      <c r="AQ34" s="148"/>
+      <c r="AQ34" s="151"/>
       <c r="AS34" s="104" t="s">
         <v>57</v>
       </c>
@@ -18675,7 +18199,7 @@
       <c r="Z37" s="3">
         <v>-1.7270375</v>
       </c>
-      <c r="AA37" s="147">
+      <c r="AA37" s="148">
         <v>0.70089449999999998</v>
       </c>
       <c r="AB37" s="3">
@@ -18687,7 +18211,7 @@
       <c r="AD37" s="3">
         <v>-1.8101635</v>
       </c>
-      <c r="AE37" s="147">
+      <c r="AE37" s="148">
         <v>0.55004043999999996</v>
       </c>
       <c r="AG37" s="2" t="s">
@@ -18708,7 +18232,7 @@
       <c r="AL37" s="3">
         <v>-1.8058714</v>
       </c>
-      <c r="AM37" s="147">
+      <c r="AM37" s="148">
         <v>0.64848044999999999</v>
       </c>
       <c r="AN37" s="3">
@@ -18720,7 +18244,7 @@
       <c r="AP37" s="3">
         <v>-2.0907635999999998</v>
       </c>
-      <c r="AQ37" s="147">
+      <c r="AQ37" s="148">
         <v>0.53154915999999997</v>
       </c>
       <c r="AS37" s="89" t="s">
@@ -18971,7 +18495,7 @@
       <c r="Z39" s="3">
         <v>-0.87197638</v>
       </c>
-      <c r="AA39" s="147">
+      <c r="AA39" s="148">
         <v>0.72322003000000001</v>
       </c>
       <c r="AB39" s="3">
@@ -18983,7 +18507,7 @@
       <c r="AD39" s="3">
         <v>-1.6167898999999999</v>
       </c>
-      <c r="AE39" s="147">
+      <c r="AE39" s="148">
         <v>0.37612331999999998</v>
       </c>
       <c r="AG39" s="2" t="s">
@@ -19004,7 +18528,7 @@
       <c r="AL39" s="3">
         <v>-0.69747152000000001</v>
       </c>
-      <c r="AM39" s="147">
+      <c r="AM39" s="148">
         <v>0.71902518000000004</v>
       </c>
       <c r="AN39" s="3">
@@ -19016,7 +18540,7 @@
       <c r="AP39" s="3">
         <v>-1.1726316999999999</v>
       </c>
-      <c r="AQ39" s="147">
+      <c r="AQ39" s="148">
         <v>0.21312254</v>
       </c>
       <c r="AS39" s="89" t="s">
@@ -19123,7 +18647,7 @@
       <c r="Z40" s="82">
         <v>7.1075609999999997E-2</v>
       </c>
-      <c r="AA40" s="148"/>
+      <c r="AA40" s="151"/>
       <c r="AB40" s="82">
         <v>0.13427094000000001</v>
       </c>
@@ -19133,7 +18657,7 @@
       <c r="AD40" s="82">
         <v>0.13427094000000001</v>
       </c>
-      <c r="AE40" s="148"/>
+      <c r="AE40" s="151"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="78">
         <v>0.16512219</v>
@@ -19150,7 +18674,7 @@
       <c r="AL40" s="82">
         <v>6.3725069999999995E-2</v>
       </c>
-      <c r="AM40" s="148"/>
+      <c r="AM40" s="151"/>
       <c r="AN40" s="82">
         <v>5.4211120000000002E-2</v>
       </c>
@@ -19160,7 +18684,7 @@
       <c r="AP40" s="82">
         <v>5.4211120000000002E-2</v>
       </c>
-      <c r="AQ40" s="148"/>
+      <c r="AQ40" s="151"/>
       <c r="AS40" s="89" t="s">
         <v>62</v>
       </c>
@@ -19768,18 +19292,18 @@
       <c r="W47" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="X47" s="145" t="s">
+      <c r="X47" s="154" t="s">
         <v>431</v>
       </c>
-      <c r="Y47" s="145"/>
-      <c r="Z47" s="146"/>
-      <c r="AA47" s="146"/>
-      <c r="AB47" s="145" t="s">
+      <c r="Y47" s="154"/>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="154" t="s">
         <v>431</v>
       </c>
-      <c r="AC47" s="145"/>
-      <c r="AD47" s="146"/>
-      <c r="AE47" s="146"/>
+      <c r="AC47" s="154"/>
+      <c r="AD47" s="155"/>
+      <c r="AE47" s="155"/>
       <c r="AG47" s="2" t="s">
         <v>67</v>
       </c>
@@ -19789,18 +19313,18 @@
       <c r="AI47" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AJ47" s="143" t="s">
+      <c r="AJ47" s="141" t="s">
         <v>431</v>
       </c>
-      <c r="AK47" s="143"/>
-      <c r="AL47" s="144"/>
-      <c r="AM47" s="144"/>
-      <c r="AN47" s="143" t="s">
+      <c r="AK47" s="141"/>
+      <c r="AL47" s="142"/>
+      <c r="AM47" s="142"/>
+      <c r="AN47" s="141" t="s">
         <v>431</v>
       </c>
-      <c r="AO47" s="143"/>
-      <c r="AP47" s="144"/>
-      <c r="AQ47" s="144"/>
+      <c r="AO47" s="141"/>
+      <c r="AP47" s="142"/>
+      <c r="AQ47" s="142"/>
       <c r="AT47" s="119">
         <v>5.9161079999999998E-2</v>
       </c>
@@ -19836,18 +19360,18 @@
       <c r="W48" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="X48" s="143" t="s">
+      <c r="X48" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="Y48" s="143"/>
-      <c r="Z48" s="144"/>
-      <c r="AA48" s="144"/>
-      <c r="AB48" s="143" t="s">
+      <c r="Y48" s="141"/>
+      <c r="Z48" s="142"/>
+      <c r="AA48" s="142"/>
+      <c r="AB48" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="AC48" s="143"/>
-      <c r="AD48" s="144"/>
-      <c r="AE48" s="144"/>
+      <c r="AC48" s="141"/>
+      <c r="AD48" s="142"/>
+      <c r="AE48" s="142"/>
       <c r="AG48" s="2" t="s">
         <v>252</v>
       </c>
@@ -19857,18 +19381,18 @@
       <c r="AI48" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AJ48" s="143" t="s">
+      <c r="AJ48" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="AK48" s="143"/>
-      <c r="AL48" s="144"/>
-      <c r="AM48" s="144"/>
-      <c r="AN48" s="143" t="s">
+      <c r="AK48" s="141"/>
+      <c r="AL48" s="142"/>
+      <c r="AM48" s="142"/>
+      <c r="AN48" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="AO48" s="143"/>
-      <c r="AP48" s="144"/>
-      <c r="AQ48" s="144"/>
+      <c r="AO48" s="141"/>
+      <c r="AP48" s="142"/>
+      <c r="AQ48" s="142"/>
       <c r="AT48" s="119">
         <v>-3.3579999999999999E-3</v>
       </c>
@@ -19904,18 +19428,18 @@
       <c r="W49" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="X49" s="143" t="s">
+      <c r="X49" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="Y49" s="143"/>
-      <c r="Z49" s="144"/>
-      <c r="AA49" s="144"/>
-      <c r="AB49" s="143" t="s">
+      <c r="Y49" s="141"/>
+      <c r="Z49" s="142"/>
+      <c r="AA49" s="142"/>
+      <c r="AB49" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="AC49" s="143"/>
-      <c r="AD49" s="144"/>
-      <c r="AE49" s="144"/>
+      <c r="AC49" s="141"/>
+      <c r="AD49" s="142"/>
+      <c r="AE49" s="142"/>
       <c r="AG49" s="2" t="s">
         <v>283</v>
       </c>
@@ -19925,18 +19449,18 @@
       <c r="AI49" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="AJ49" s="143" t="s">
+      <c r="AJ49" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="AK49" s="143"/>
-      <c r="AL49" s="144"/>
-      <c r="AM49" s="144"/>
-      <c r="AN49" s="143" t="s">
+      <c r="AK49" s="141"/>
+      <c r="AL49" s="142"/>
+      <c r="AM49" s="142"/>
+      <c r="AN49" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="AO49" s="143"/>
-      <c r="AP49" s="144"/>
-      <c r="AQ49" s="144"/>
+      <c r="AO49" s="141"/>
+      <c r="AP49" s="142"/>
+      <c r="AQ49" s="142"/>
       <c r="AT49" s="119">
         <v>3.5364300000000001E-3</v>
       </c>
@@ -19963,32 +19487,32 @@
       </c>
     </row>
     <row r="50" spans="21:61" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="U50" s="141" t="s">
+      <c r="U50" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="V50" s="141"/>
-      <c r="W50" s="141"/>
-      <c r="X50" s="141"/>
-      <c r="Y50" s="141"/>
-      <c r="Z50" s="141"/>
-      <c r="AA50" s="141"/>
-      <c r="AB50" s="141"/>
-      <c r="AC50" s="141"/>
-      <c r="AD50" s="141"/>
-      <c r="AE50" s="141"/>
-      <c r="AG50" s="141" t="s">
+      <c r="V50" s="152"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="152"/>
+      <c r="Z50" s="152"/>
+      <c r="AA50" s="152"/>
+      <c r="AB50" s="152"/>
+      <c r="AC50" s="152"/>
+      <c r="AD50" s="152"/>
+      <c r="AE50" s="152"/>
+      <c r="AG50" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="AH50" s="141"/>
-      <c r="AI50" s="141"/>
-      <c r="AJ50" s="141"/>
-      <c r="AK50" s="141"/>
-      <c r="AL50" s="141"/>
-      <c r="AM50" s="141"/>
-      <c r="AN50" s="141"/>
-      <c r="AO50" s="141"/>
-      <c r="AP50" s="141"/>
-      <c r="AQ50" s="141"/>
+      <c r="AH50" s="152"/>
+      <c r="AI50" s="152"/>
+      <c r="AJ50" s="152"/>
+      <c r="AK50" s="152"/>
+      <c r="AL50" s="152"/>
+      <c r="AM50" s="152"/>
+      <c r="AN50" s="152"/>
+      <c r="AO50" s="152"/>
+      <c r="AP50" s="152"/>
+      <c r="AQ50" s="152"/>
       <c r="AT50" s="119">
         <v>8.0183500000000005E-3</v>
       </c>
@@ -20328,64 +19852,38 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AM17:AM18"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AM21:AM22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AQ17:AQ18"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AQ31:AQ32"/>
-    <mergeCell ref="AM39:AM40"/>
-    <mergeCell ref="AN47:AQ47"/>
-    <mergeCell ref="AQ29:AQ30"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AQ25:AQ26"/>
-    <mergeCell ref="AM25:AM26"/>
-    <mergeCell ref="AM27:AM28"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AS1:BA1"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="AS23:BA23"/>
+    <mergeCell ref="AT24:AW24"/>
+    <mergeCell ref="AX24:BA24"/>
+    <mergeCell ref="BC1:BK1"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BH2:BK2"/>
+    <mergeCell ref="BC23:BK23"/>
+    <mergeCell ref="BD24:BG24"/>
+    <mergeCell ref="BH24:BK24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="U1:AE1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="U50:AE50"/>
     <mergeCell ref="AA35:AA36"/>
     <mergeCell ref="AG50:AQ50"/>
@@ -20410,168 +19908,194 @@
     <mergeCell ref="AJ48:AM48"/>
     <mergeCell ref="AN48:AQ48"/>
     <mergeCell ref="AE37:AE38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AG1:AQ1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="U1:AE1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AS1:BA1"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="AS23:BA23"/>
-    <mergeCell ref="AT24:AW24"/>
-    <mergeCell ref="AX24:BA24"/>
-    <mergeCell ref="BC1:BK1"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BH2:BK2"/>
-    <mergeCell ref="BC23:BK23"/>
-    <mergeCell ref="BD24:BG24"/>
-    <mergeCell ref="BH24:BK24"/>
+    <mergeCell ref="AM39:AM40"/>
+    <mergeCell ref="AN47:AQ47"/>
+    <mergeCell ref="AQ29:AQ30"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AQ25:AQ26"/>
+    <mergeCell ref="AM25:AM26"/>
+    <mergeCell ref="AM27:AM28"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AM17:AM18"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AM21:AM22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AQ17:AQ18"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AQ31:AQ32"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AQ15:AQ16"/>
   </mergeCells>
   <conditionalFormatting sqref="V5:Z5 AH5:AL5 V7:Z7 AH7:AL7 V9:Z9 AH9:AL9 V11:Z11 AH11:AL11 V13:Z13 AH13:AL13 V15:Z15 AH15:AL15 V17:Z17 AH17:AL17 V19:Z19 AH19:AL19 V21:Z21 AH21:AL21 V23:Z23 AH23:AL23 V25:Z25 AH25:AL25 V27:Z27 AH27:AL27 V29:Z29 AH29:AL29 V31:Z31 AH31:AL31 V33:Z33 AH33:AL33 V35:Z35 AH35:AL35 V37:Z37 AH37:AL37 V39:Z39 AH39:AL39 V45:Z45 AB45:AD45 AN45:AP45">
-    <cfRule type="expression" dxfId="254" priority="118">
+    <cfRule type="expression" dxfId="152" priority="118">
       <formula>AND(ABS(V5/V6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(V5/V6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="119">
+    <cfRule type="expression" dxfId="151" priority="119">
       <formula>AND(ABS(V5/V6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(V5/V6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="120">
+    <cfRule type="expression" dxfId="150" priority="120">
       <formula>ABS(V5/V6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41:Z41 AB41:AD41">
-    <cfRule type="expression" dxfId="251" priority="25">
+    <cfRule type="expression" dxfId="149" priority="25">
       <formula>AND(ABS(V41/V42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(V41/V42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="26">
+    <cfRule type="expression" dxfId="148" priority="26">
       <formula>AND(ABS(V41/V42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(V41/V42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="147" priority="27">
       <formula>ABS(V41/V42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V43:Z43 AB43:AD43">
-    <cfRule type="expression" dxfId="248" priority="28">
+    <cfRule type="expression" dxfId="146" priority="28">
       <formula>AND(ABS(V43/V44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(V43/V44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="29">
+    <cfRule type="expression" dxfId="145" priority="29">
       <formula>AND(ABS(V43/V44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(V43/V44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="30">
+    <cfRule type="expression" dxfId="144" priority="30">
       <formula>ABS(V43/V44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AD5 AB7:AD7 AB9:AD9 AB11:AD11 AB13:AD13 AB15:AD15 AB17:AD17 AB19:AD19 AB21:AD21 AB23:AD23 AB25:AD25 AB27:AD27 AB29:AD29 AB31:AD31 AB33:AD33 AB35:AD35 AB39:AD39">
-    <cfRule type="expression" dxfId="245" priority="97">
+    <cfRule type="expression" dxfId="143" priority="97">
       <formula>AND(ABS(AB5/AB6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB5/AB6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="98">
+    <cfRule type="expression" dxfId="142" priority="98">
       <formula>AND(ABS(AB5/AB6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB5/AB6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="99">
+    <cfRule type="expression" dxfId="141" priority="99">
       <formula>ABS(AB5/AB6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37:AD37">
-    <cfRule type="expression" dxfId="242" priority="75">
+    <cfRule type="expression" dxfId="140" priority="75">
       <formula>ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="74">
+    <cfRule type="expression" dxfId="139" priority="74">
       <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="73">
+    <cfRule type="expression" dxfId="138" priority="73">
       <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH41:AL41">
-    <cfRule type="expression" dxfId="239" priority="10">
+    <cfRule type="expression" dxfId="137" priority="10">
       <formula>AND(ABS(AH41/AH42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH41/AH42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="11">
+    <cfRule type="expression" dxfId="136" priority="11">
       <formula>AND(ABS(AH41/AH42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH41/AH42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="12">
+    <cfRule type="expression" dxfId="135" priority="12">
       <formula>ABS(AH41/AH42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH43:AL43">
-    <cfRule type="expression" dxfId="236" priority="22">
+    <cfRule type="expression" dxfId="134" priority="22">
       <formula>AND(ABS(AH43/AH44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH43/AH44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="23">
+    <cfRule type="expression" dxfId="133" priority="23">
       <formula>AND(ABS(AH43/AH44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH43/AH44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="24">
+    <cfRule type="expression" dxfId="132" priority="24">
       <formula>ABS(AH43/AH44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AL45">
-    <cfRule type="expression" dxfId="233" priority="195">
+    <cfRule type="expression" dxfId="131" priority="195">
       <formula>ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="193">
+    <cfRule type="expression" dxfId="130" priority="193">
       <formula>AND(ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH45/AH46)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="194">
+    <cfRule type="expression" dxfId="129" priority="194">
       <formula>AND(ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH45/AH46)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AP5 AN7:AP7 AN9:AP9 AN11:AP11 AN13:AP13 AN15:AP15 AN17:AP17 AN19:AP19 AN21:AP21 AN23:AP23 AN25:AP25 AN27:AP27 AN29:AP29 AN31:AP31 AN33:AP33 AN35:AP35 AN39:AP39">
-    <cfRule type="expression" dxfId="230" priority="92">
+    <cfRule type="expression" dxfId="128" priority="92">
       <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="91">
+    <cfRule type="expression" dxfId="127" priority="91">
       <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="93">
+    <cfRule type="expression" dxfId="126" priority="93">
       <formula>ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN37:AP37">
-    <cfRule type="expression" dxfId="227" priority="67">
+    <cfRule type="expression" dxfId="125" priority="67">
       <formula>AND(ABS(AN37/AN38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN37/AN38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="68">
+    <cfRule type="expression" dxfId="124" priority="68">
       <formula>AND(ABS(AN37/AN38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN37/AN38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="69">
+    <cfRule type="expression" dxfId="123" priority="69">
       <formula>ABS(AN37/AN38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN41:AP41">
-    <cfRule type="expression" dxfId="224" priority="8">
+    <cfRule type="expression" dxfId="122" priority="8">
       <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="9">
+    <cfRule type="expression" dxfId="121" priority="9">
       <formula>ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="7">
+    <cfRule type="expression" dxfId="120" priority="7">
       <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN43:AP43">
-    <cfRule type="expression" dxfId="221" priority="21">
+    <cfRule type="expression" dxfId="119" priority="21">
       <formula>ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="20">
+    <cfRule type="expression" dxfId="118" priority="20">
       <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="19">
+    <cfRule type="expression" dxfId="117" priority="19">
       <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20638,56 +20162,56 @@
       <c r="O1" s="138"/>
       <c r="P1" s="138"/>
       <c r="Q1" s="138"/>
-      <c r="S1" s="155" t="s">
+      <c r="S1" s="147" t="s">
         <v>539</v>
       </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
     </row>
     <row r="2" spans="1:27" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="152" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="154"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="144"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="151" t="s">
+      <c r="J2" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="152" t="s">
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
       <c r="S2" s="29"/>
-      <c r="T2" s="151" t="s">
+      <c r="T2" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="152" t="s">
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
@@ -20930,7 +20454,7 @@
       <c r="C6" s="3">
         <v>3.2307212999999999</v>
       </c>
-      <c r="D6" s="147">
+      <c r="D6" s="148">
         <v>0.25374353999999999</v>
       </c>
       <c r="E6" s="3">
@@ -20939,7 +20463,7 @@
       <c r="F6" s="3">
         <v>3.8807524</v>
       </c>
-      <c r="G6" s="147">
+      <c r="G6" s="148">
         <v>0.38449050000000001</v>
       </c>
       <c r="I6" s="89" t="s">
@@ -21090,7 +20614,7 @@
       <c r="C8" s="3">
         <v>3.685273</v>
       </c>
-      <c r="D8" s="147">
+      <c r="D8" s="148">
         <v>0.29782459999999999</v>
       </c>
       <c r="E8" s="3">
@@ -21099,7 +20623,7 @@
       <c r="F8" s="3">
         <v>4.1420569</v>
       </c>
-      <c r="G8" s="147">
+      <c r="G8" s="148">
         <v>0.31977597000000002</v>
       </c>
       <c r="I8" s="89" t="s">
@@ -21250,7 +20774,7 @@
       <c r="C10" s="3">
         <v>2.0094680999999999</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="148">
         <v>0.29875703999999997</v>
       </c>
       <c r="E10" s="3">
@@ -21259,7 +20783,7 @@
       <c r="F10" s="3">
         <v>2.6365804000000002</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="148">
         <v>0.34593941</v>
       </c>
       <c r="I10" s="89" t="s">
@@ -21410,7 +20934,7 @@
       <c r="C12" s="3">
         <v>2.3839939000000001</v>
       </c>
-      <c r="D12" s="147">
+      <c r="D12" s="148">
         <v>0.56482272</v>
       </c>
       <c r="E12" s="3">
@@ -21419,7 +20943,7 @@
       <c r="F12" s="3">
         <v>2.8540711000000001</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="148">
         <v>0.47563279000000003</v>
       </c>
       <c r="I12" s="104" t="s">
@@ -21570,7 +21094,7 @@
       <c r="C14" s="3">
         <v>3.1167791</v>
       </c>
-      <c r="D14" s="147">
+      <c r="D14" s="148">
         <v>0.39836770999999999</v>
       </c>
       <c r="E14" s="3">
@@ -21579,7 +21103,7 @@
       <c r="F14" s="3">
         <v>4.2387869</v>
       </c>
-      <c r="G14" s="147">
+      <c r="G14" s="148">
         <v>0.37373878999999999</v>
       </c>
       <c r="I14" s="89" t="s">
@@ -21730,7 +21254,7 @@
       <c r="C16" s="3">
         <v>2.6684388000000001</v>
       </c>
-      <c r="D16" s="147">
+      <c r="D16" s="148">
         <v>0.52717676000000002</v>
       </c>
       <c r="E16" s="3">
@@ -21739,7 +21263,7 @@
       <c r="F16" s="3">
         <v>3.1101008000000001</v>
       </c>
-      <c r="G16" s="147">
+      <c r="G16" s="148">
         <v>0.39088838999999997</v>
       </c>
       <c r="I16" s="89" t="s">
@@ -21890,7 +21414,7 @@
       <c r="C18" s="3">
         <v>2.8211018999999999</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="148">
         <v>0.50145782999999999</v>
       </c>
       <c r="E18" s="3">
@@ -21899,7 +21423,7 @@
       <c r="F18" s="3">
         <v>3.4351039999999999</v>
       </c>
-      <c r="G18" s="147">
+      <c r="G18" s="148">
         <v>0.46788640999999997</v>
       </c>
       <c r="I18" s="89" t="s">
@@ -21971,14 +21495,14 @@
       <c r="C19" s="7">
         <v>0.19835240000000001</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="7">
         <v>0.23423637999999999</v>
       </c>
       <c r="F19" s="7">
         <v>0.18902795</v>
       </c>
-      <c r="G19" s="148"/>
+      <c r="G19" s="151"/>
       <c r="I19" s="104" t="s">
         <v>63</v>
       </c>
@@ -22210,7 +21734,7 @@
       <c r="C22" s="3">
         <v>3.6474085000000001</v>
       </c>
-      <c r="D22" s="147">
+      <c r="D22" s="148">
         <v>0.49753828</v>
       </c>
       <c r="E22" s="3">
@@ -22219,7 +21743,7 @@
       <c r="F22" s="3">
         <v>4.0309838999999998</v>
       </c>
-      <c r="G22" s="147">
+      <c r="G22" s="148">
         <v>0.45828553</v>
       </c>
       <c r="Q22" s="119" cm="1">
@@ -22281,7 +21805,7 @@
       <c r="C24" s="3">
         <v>3.2909400999999998</v>
       </c>
-      <c r="D24" s="147">
+      <c r="D24" s="148">
         <v>0.43806056999999998</v>
       </c>
       <c r="E24" s="3">
@@ -22290,22 +21814,22 @@
       <c r="F24" s="3">
         <v>4.33169</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="148">
         <v>0.41762647000000003</v>
       </c>
       <c r="I24" s="29"/>
-      <c r="J24" s="151" t="s">
+      <c r="J24" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="152" t="s">
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
       <c r="T24" s="119">
         <v>1.1861429999999999E-2</v>
       </c>
@@ -22383,7 +21907,7 @@
       <c r="C26" s="3">
         <v>3.2597874999999998</v>
       </c>
-      <c r="D26" s="147">
+      <c r="D26" s="148">
         <v>0.39676285999999999</v>
       </c>
       <c r="E26" s="3">
@@ -22392,7 +21916,7 @@
       <c r="F26" s="3">
         <v>3.6769596999999998</v>
       </c>
-      <c r="G26" s="147">
+      <c r="G26" s="148">
         <v>0.41420011000000001</v>
       </c>
       <c r="I26" s="114" t="s">
@@ -22509,7 +22033,7 @@
       <c r="C28" s="3">
         <v>2.7670124999999999</v>
       </c>
-      <c r="D28" s="147">
+      <c r="D28" s="148">
         <v>0.23303188999999999</v>
       </c>
       <c r="E28" s="3">
@@ -22518,7 +22042,7 @@
       <c r="F28" s="3">
         <v>3.5170925</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="148">
         <v>0.34959373999999999</v>
       </c>
       <c r="I28" s="89" t="s">
@@ -22635,7 +22159,7 @@
       <c r="C30" s="3">
         <v>2.7469763</v>
       </c>
-      <c r="D30" s="147">
+      <c r="D30" s="148">
         <v>0.45184267</v>
       </c>
       <c r="E30" s="3">
@@ -22644,7 +22168,7 @@
       <c r="F30" s="3">
         <v>3.529388</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="148">
         <v>0.51643079000000003</v>
       </c>
       <c r="I30" s="89" t="s">
@@ -22761,7 +22285,7 @@
       <c r="C32" s="3">
         <v>2.4161598999999998</v>
       </c>
-      <c r="D32" s="147">
+      <c r="D32" s="148">
         <v>0.43545403999999999</v>
       </c>
       <c r="E32" s="3">
@@ -22770,7 +22294,7 @@
       <c r="F32" s="3">
         <v>3.0833922</v>
       </c>
-      <c r="G32" s="147">
+      <c r="G32" s="148">
         <v>0.49338507999999998</v>
       </c>
       <c r="I32" s="89" t="s">
@@ -22825,14 +22349,14 @@
       <c r="C33" s="7">
         <v>0.14250724000000001</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="7">
         <v>0.29153747000000002</v>
       </c>
       <c r="F33" s="7">
         <v>0.22997618</v>
       </c>
-      <c r="G33" s="148"/>
+      <c r="G33" s="151"/>
       <c r="I33" s="89" t="s">
         <v>56</v>
       </c>
@@ -23013,7 +22537,7 @@
       <c r="C36" s="3">
         <v>1.5096369000000001</v>
       </c>
-      <c r="D36" s="147">
+      <c r="D36" s="148">
         <v>0.69751458</v>
       </c>
       <c r="E36" s="3">
@@ -23022,7 +22546,7 @@
       <c r="F36" s="3">
         <v>1.5388016</v>
       </c>
-      <c r="G36" s="147">
+      <c r="G36" s="148">
         <v>0.49482746</v>
       </c>
       <c r="I36" s="89" t="s">
@@ -23139,7 +22663,7 @@
       <c r="C38" s="3">
         <v>0.71980129999999998</v>
       </c>
-      <c r="D38" s="147">
+      <c r="D38" s="148">
         <v>0.74956400000000001</v>
       </c>
       <c r="E38" s="3">
@@ -23148,7 +22672,7 @@
       <c r="F38" s="3">
         <v>1.4668943999999999</v>
       </c>
-      <c r="G38" s="147">
+      <c r="G38" s="148">
         <v>0.29623432999999999</v>
       </c>
       <c r="I38" s="89" t="s">
@@ -23256,15 +22780,15 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="141" t="s">
+      <c r="A40" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
       <c r="I40" s="89" t="s">
         <v>62</v>
       </c>
@@ -23668,39 +23192,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="S1:AA1"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AA2"/>
@@ -23717,15 +23208,48 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4 E4:F4 B6:C6 E6:F6 B8:C8 E8:F8 B10:C10 E10:F10 B12:C12 E12:F12 B14:C14 E14:F14 B16:C16 E16:F16 B18:C18 E18:F18 B20:C20 E20:F20 B22:C22 E22:F22 B24:C24 E24:F24 B26:C26 E26:F26 B28:C28 E28:F28 B30:C30 E30:F30 B32:C32 E32:F32 B34:C34 E34:F34 B36:C36 E36:F36 B38:C38 E38:F38">
-    <cfRule type="expression" dxfId="218" priority="7">
+    <cfRule type="expression" dxfId="116" priority="7">
       <formula>AND(ABS(B4/B5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B4/B5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="8">
+    <cfRule type="expression" dxfId="115" priority="8">
       <formula>AND(ABS(B4/B5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B4/B5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="9">
+    <cfRule type="expression" dxfId="114" priority="9">
       <formula>ABS(B4/B5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23737,8 +23261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E4BB4-D169-485F-9F49-6D22A4AA3C94}">
   <dimension ref="A1:AM79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -23829,63 +23353,63 @@
       <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="160" t="s">
+      <c r="G2" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="152" t="s">
+      <c r="H2" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152" t="s">
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="152" t="s">
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="154"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="144"/>
+      <c r="Q2" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="R2" s="152" t="s">
+      <c r="R2" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152" t="s">
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152" t="s">
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="Y2" s="152"/>
-      <c r="AA2" s="160" t="s">
+      <c r="Y2" s="143"/>
+      <c r="AA2" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="AB2" s="152" t="s">
+      <c r="AB2" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152" t="s">
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152" t="s">
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152" t="s">
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="152"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
@@ -23903,7 +23427,7 @@
       <c r="E3" s="17">
         <v>158.33332999999999</v>
       </c>
-      <c r="G3" s="148"/>
+      <c r="G3" s="151"/>
       <c r="H3" s="6" t="s">
         <v>232</v>
       </c>
@@ -23928,7 +23452,7 @@
       <c r="O3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q3" s="165"/>
+      <c r="Q3" s="160"/>
       <c r="R3" s="6" t="s">
         <v>232</v>
       </c>
@@ -23953,7 +23477,7 @@
       <c r="Y3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AA3" s="165"/>
+      <c r="AA3" s="160"/>
       <c r="AB3" s="6" t="s">
         <v>232</v>
       </c>
@@ -25508,17 +25032,17 @@
       <c r="G18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="159">
+      <c r="H18" s="161">
         <v>0.64241561000000003</v>
       </c>
-      <c r="I18" s="159"/>
+      <c r="I18" s="161"/>
       <c r="J18" s="31">
         <v>0.56693265999999998</v>
       </c>
-      <c r="K18" s="159">
+      <c r="K18" s="161">
         <v>0.54524678999999998</v>
       </c>
-      <c r="L18" s="163"/>
+      <c r="L18" s="164"/>
       <c r="M18" s="31">
         <v>0.50872728</v>
       </c>
@@ -25531,17 +25055,17 @@
       <c r="Q18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="159">
+      <c r="R18" s="161">
         <v>0.6503563</v>
       </c>
-      <c r="S18" s="159"/>
+      <c r="S18" s="161"/>
       <c r="T18" s="31">
         <v>0.56962623000000001</v>
       </c>
-      <c r="U18" s="159">
+      <c r="U18" s="161">
         <v>0.55572748000000005</v>
       </c>
-      <c r="V18" s="159"/>
+      <c r="V18" s="161"/>
       <c r="W18" s="31">
         <v>0.51665450999999996</v>
       </c>
@@ -25554,31 +25078,31 @@
       <c r="AA18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AB18" s="159">
+      <c r="AB18" s="161">
         <v>0.55592395999999999</v>
       </c>
-      <c r="AC18" s="159"/>
+      <c r="AC18" s="161"/>
       <c r="AD18" s="31">
         <v>0.51494600000000001</v>
       </c>
-      <c r="AE18" s="159">
+      <c r="AE18" s="161">
         <v>0.55526279999999995</v>
       </c>
-      <c r="AF18" s="159"/>
+      <c r="AF18" s="161"/>
       <c r="AG18" s="31">
         <v>0.51441066000000002</v>
       </c>
-      <c r="AH18" s="159">
+      <c r="AH18" s="161">
         <v>0.55523436000000004</v>
       </c>
-      <c r="AI18" s="159"/>
+      <c r="AI18" s="161"/>
       <c r="AJ18" s="31">
         <v>0.51489779000000002</v>
       </c>
-      <c r="AK18" s="159">
+      <c r="AK18" s="161">
         <v>0.55498342000000001</v>
       </c>
-      <c r="AL18" s="159"/>
+      <c r="AL18" s="161"/>
       <c r="AM18" s="31">
         <v>0.51524692999999999</v>
       </c>
@@ -25599,38 +25123,38 @@
       <c r="E19" s="17">
         <v>19.608695999999998</v>
       </c>
-      <c r="G19" s="161" t="s">
+      <c r="G19" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="Q19" s="141" t="s">
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="Q19" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="AA19" s="141" t="s">
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="AA19" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="141"/>
-      <c r="AJ19" s="141"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="152"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="152"/>
+      <c r="AJ19" s="152"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
@@ -25721,63 +25245,63 @@
       <c r="E22" s="17">
         <v>9.4907407999999993</v>
       </c>
-      <c r="G22" s="160" t="s">
+      <c r="G22" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="152" t="s">
+      <c r="H22" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152" t="s">
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="152" t="s">
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="O22" s="154"/>
-      <c r="Q22" s="160" t="s">
+      <c r="O22" s="144"/>
+      <c r="Q22" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="R22" s="152" t="s">
+      <c r="R22" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152" t="s">
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="V22" s="152"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152" t="s">
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="Y22" s="152"/>
-      <c r="AA22" s="160" t="s">
+      <c r="Y22" s="143"/>
+      <c r="AA22" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="AB22" s="152" t="s">
+      <c r="AB22" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="AC22" s="152"/>
-      <c r="AD22" s="152"/>
-      <c r="AE22" s="152" t="s">
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="143"/>
+      <c r="AE22" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="152" t="s">
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="AI22" s="152"/>
-      <c r="AJ22" s="152"/>
-      <c r="AK22" s="152" t="s">
+      <c r="AI22" s="143"/>
+      <c r="AJ22" s="143"/>
+      <c r="AK22" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="AL22" s="152"/>
-      <c r="AM22" s="152"/>
+      <c r="AL22" s="143"/>
+      <c r="AM22" s="143"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
@@ -25795,7 +25319,7 @@
       <c r="E23" s="17">
         <v>1.4314286000000001</v>
       </c>
-      <c r="G23" s="148"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="6" t="s">
         <v>232</v>
       </c>
@@ -25820,7 +25344,7 @@
       <c r="O23" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q23" s="165"/>
+      <c r="Q23" s="160"/>
       <c r="R23" s="6" t="s">
         <v>232</v>
       </c>
@@ -25845,7 +25369,7 @@
       <c r="Y23" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AA23" s="165"/>
+      <c r="AA23" s="160"/>
       <c r="AB23" s="6" t="s">
         <v>232</v>
       </c>
@@ -27400,17 +26924,17 @@
       <c r="G38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="159">
+      <c r="H38" s="161">
         <v>0.64242032000000004</v>
       </c>
-      <c r="I38" s="159"/>
+      <c r="I38" s="161"/>
       <c r="J38" s="31">
         <v>0.56189093999999995</v>
       </c>
-      <c r="K38" s="159">
+      <c r="K38" s="161">
         <v>0.54481528999999995</v>
       </c>
-      <c r="L38" s="163"/>
+      <c r="L38" s="164"/>
       <c r="M38" s="31">
         <v>0.50814572999999996</v>
       </c>
@@ -27423,17 +26947,17 @@
       <c r="Q38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="159">
+      <c r="R38" s="161">
         <v>0.64368422999999997</v>
       </c>
-      <c r="S38" s="159"/>
+      <c r="S38" s="161"/>
       <c r="T38" s="31">
         <v>0.56610983000000004</v>
       </c>
-      <c r="U38" s="159">
+      <c r="U38" s="161">
         <v>0.54557962000000004</v>
       </c>
-      <c r="V38" s="159"/>
+      <c r="V38" s="161"/>
       <c r="W38" s="31">
         <v>0.50766871999999996</v>
       </c>
@@ -27446,31 +26970,31 @@
       <c r="AA38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AB38" s="159">
+      <c r="AB38" s="161">
         <v>0.53945500000000002</v>
       </c>
-      <c r="AC38" s="159"/>
+      <c r="AC38" s="161"/>
       <c r="AD38" s="31">
         <v>0.50458159999999996</v>
       </c>
-      <c r="AE38" s="159">
+      <c r="AE38" s="161">
         <v>0.53910985</v>
       </c>
-      <c r="AF38" s="159"/>
+      <c r="AF38" s="161"/>
       <c r="AG38" s="31">
         <v>0.50386094000000003</v>
       </c>
-      <c r="AH38" s="159">
+      <c r="AH38" s="161">
         <v>0.53992614000000005</v>
       </c>
-      <c r="AI38" s="159"/>
+      <c r="AI38" s="161"/>
       <c r="AJ38" s="31">
         <v>0.50478877</v>
       </c>
-      <c r="AK38" s="159">
+      <c r="AK38" s="161">
         <v>0.54450500999999996</v>
       </c>
-      <c r="AL38" s="159"/>
+      <c r="AL38" s="161"/>
       <c r="AM38" s="31">
         <v>0.50734732999999999</v>
       </c>
@@ -27491,38 +27015,38 @@
       <c r="E39" s="17">
         <v>122.3</v>
       </c>
-      <c r="G39" s="161" t="s">
+      <c r="G39" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="Q39" s="141" t="s">
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="Q39" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
-      <c r="T39" s="141"/>
-      <c r="U39" s="141"/>
-      <c r="V39" s="141"/>
-      <c r="W39" s="141"/>
-      <c r="X39" s="141"/>
-      <c r="AA39" s="141" t="s">
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="152"/>
+      <c r="X39" s="152"/>
+      <c r="AA39" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="AB39" s="141"/>
-      <c r="AC39" s="141"/>
-      <c r="AD39" s="141"/>
-      <c r="AE39" s="141"/>
-      <c r="AF39" s="141"/>
-      <c r="AG39" s="141"/>
-      <c r="AH39" s="141"/>
-      <c r="AI39" s="141"/>
-      <c r="AJ39" s="141"/>
+      <c r="AB39" s="152"/>
+      <c r="AC39" s="152"/>
+      <c r="AD39" s="152"/>
+      <c r="AE39" s="152"/>
+      <c r="AF39" s="152"/>
+      <c r="AG39" s="152"/>
+      <c r="AH39" s="152"/>
+      <c r="AI39" s="152"/>
+      <c r="AJ39" s="152"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
@@ -27585,23 +27109,23 @@
       <c r="E42" s="17">
         <v>18.382245999999999</v>
       </c>
-      <c r="G42" s="160" t="s">
+      <c r="G42" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="H42" s="152" t="s">
+      <c r="H42" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I42" s="152"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="152" t="s">
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
-      <c r="N42" s="152" t="s">
+      <c r="L42" s="144"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="O42" s="154"/>
+      <c r="O42" s="144"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11" t="s">
@@ -27619,7 +27143,7 @@
       <c r="E43" s="20">
         <v>0.68172520000000003</v>
       </c>
-      <c r="G43" s="148"/>
+      <c r="G43" s="151"/>
       <c r="H43" s="6" t="s">
         <v>232</v>
       </c>
@@ -28056,17 +27580,17 @@
       <c r="G58" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="159">
+      <c r="H58" s="161">
         <v>0.63715666000000004</v>
       </c>
-      <c r="I58" s="159"/>
+      <c r="I58" s="161"/>
       <c r="J58" s="31">
         <v>0.55400749999999999</v>
       </c>
-      <c r="K58" s="159">
+      <c r="K58" s="161">
         <v>0.54510913999999999</v>
       </c>
-      <c r="L58" s="163"/>
+      <c r="L58" s="164"/>
       <c r="M58" s="31">
         <v>0.50883844</v>
       </c>
@@ -28078,16 +27602,16 @@
       </c>
     </row>
     <row r="59" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G59" s="161" t="s">
+      <c r="G59" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="H59" s="162"/>
-      <c r="I59" s="162"/>
-      <c r="J59" s="162"/>
-      <c r="K59" s="162"/>
-      <c r="L59" s="162"/>
-      <c r="M59" s="162"/>
-      <c r="N59" s="162"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="163"/>
+      <c r="K59" s="163"/>
+      <c r="L59" s="163"/>
+      <c r="M59" s="163"/>
+      <c r="N59" s="163"/>
     </row>
     <row r="61" spans="7:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G61" s="138" t="s">
@@ -28103,26 +27627,26 @@
       <c r="O61" s="140"/>
     </row>
     <row r="62" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G62" s="160" t="s">
+      <c r="G62" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="H62" s="152" t="s">
+      <c r="H62" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152" t="s">
+      <c r="I62" s="143"/>
+      <c r="J62" s="143"/>
+      <c r="K62" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
-      <c r="N62" s="152" t="s">
+      <c r="L62" s="144"/>
+      <c r="M62" s="144"/>
+      <c r="N62" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="O62" s="154"/>
+      <c r="O62" s="144"/>
     </row>
     <row r="63" spans="7:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G63" s="148"/>
+      <c r="G63" s="151"/>
       <c r="H63" s="6" t="s">
         <v>232</v>
       </c>
@@ -28544,17 +28068,17 @@
       <c r="G78" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="159">
+      <c r="H78" s="161">
         <v>0.65022099</v>
       </c>
-      <c r="I78" s="159"/>
+      <c r="I78" s="161"/>
       <c r="J78" s="31">
         <v>0.55469862999999997</v>
       </c>
-      <c r="K78" s="159">
+      <c r="K78" s="161">
         <v>0.54688442000000004</v>
       </c>
-      <c r="L78" s="163"/>
+      <c r="L78" s="164"/>
       <c r="M78" s="31">
         <v>0.51021148999999999</v>
       </c>
@@ -28566,35 +28090,58 @@
       </c>
     </row>
     <row r="79" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G79" s="161" t="s">
+      <c r="G79" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="H79" s="162"/>
-      <c r="I79" s="162"/>
-      <c r="J79" s="162"/>
-      <c r="K79" s="162"/>
-      <c r="L79" s="162"/>
-      <c r="M79" s="162"/>
-      <c r="N79" s="162"/>
+      <c r="H79" s="163"/>
+      <c r="I79" s="163"/>
+      <c r="J79" s="163"/>
+      <c r="K79" s="163"/>
+      <c r="L79" s="163"/>
+      <c r="M79" s="163"/>
+      <c r="N79" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="AA19:AJ19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="Q19:X19"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AA1:AM1"/>
+    <mergeCell ref="AA21:AM21"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G41:O41"/>
+    <mergeCell ref="G61:O61"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Q21:Y21"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="G79:N79"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="G39:N39"/>
     <mergeCell ref="AA39:AJ39"/>
     <mergeCell ref="H38:I38"/>
@@ -28611,448 +28158,425 @@
     <mergeCell ref="AE38:AF38"/>
     <mergeCell ref="AH38:AI38"/>
     <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="G79:N79"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G41:O41"/>
-    <mergeCell ref="G61:O61"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Q21:Y21"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="AA21:AM21"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="AA19:AJ19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="Q19:X19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="G1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:O4 H14:O14 H16:O16 H24:O24 H34:O34 H36:O36 H44:O44 H54:O54 H56:O56">
-    <cfRule type="expression" dxfId="215" priority="189">
+    <cfRule type="expression" dxfId="113" priority="189">
       <formula>ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="188">
+    <cfRule type="expression" dxfId="112" priority="188">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="187">
+    <cfRule type="expression" dxfId="111" priority="187">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:O6">
-    <cfRule type="expression" dxfId="212" priority="159">
+    <cfRule type="expression" dxfId="110" priority="157">
+      <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="159">
       <formula>ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="158">
+    <cfRule type="expression" dxfId="108" priority="158">
       <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="157">
-      <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:O8">
-    <cfRule type="expression" dxfId="209" priority="162">
+    <cfRule type="expression" dxfId="107" priority="160">
+      <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="162">
       <formula>ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="161">
+    <cfRule type="expression" dxfId="105" priority="161">
       <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="160">
-      <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:O10">
-    <cfRule type="expression" dxfId="206" priority="165">
+    <cfRule type="expression" dxfId="104" priority="165">
       <formula>ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="164">
+    <cfRule type="expression" dxfId="103" priority="164">
       <formula>AND(ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H10/H11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="163">
+    <cfRule type="expression" dxfId="102" priority="163">
       <formula>AND(ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H10/H11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:O12">
-    <cfRule type="expression" dxfId="203" priority="67">
-      <formula>AND(ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H12/H13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="101" priority="69">
+      <formula>ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="68">
+    <cfRule type="expression" dxfId="100" priority="68">
       <formula>AND(ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H12/H13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="69">
-      <formula>ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="99" priority="67">
+      <formula>AND(ABS(H12/H13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H12/H13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:O26">
-    <cfRule type="expression" dxfId="200" priority="148">
+    <cfRule type="expression" dxfId="98" priority="148">
       <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="149">
+    <cfRule type="expression" dxfId="97" priority="149">
       <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="150">
+    <cfRule type="expression" dxfId="96" priority="150">
       <formula>ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:O28">
-    <cfRule type="expression" dxfId="197" priority="153">
+    <cfRule type="expression" dxfId="95" priority="152">
+      <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="153">
       <formula>ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="152">
-      <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="151">
+    <cfRule type="expression" dxfId="93" priority="151">
       <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:O30">
-    <cfRule type="expression" dxfId="194" priority="156">
-      <formula>ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="155">
+    <cfRule type="expression" dxfId="92" priority="155">
       <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="154">
+    <cfRule type="expression" dxfId="91" priority="154">
       <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="156">
+      <formula>ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:O32">
-    <cfRule type="expression" dxfId="191" priority="64">
-      <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="89" priority="66">
+      <formula>ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="65">
+    <cfRule type="expression" dxfId="88" priority="65">
       <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="66">
-      <formula>ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="87" priority="64">
+      <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:O46">
-    <cfRule type="expression" dxfId="188" priority="141">
+    <cfRule type="expression" dxfId="86" priority="141">
       <formula>ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="140">
+    <cfRule type="expression" dxfId="85" priority="140">
       <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="139">
+    <cfRule type="expression" dxfId="84" priority="139">
       <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:O48">
-    <cfRule type="expression" dxfId="185" priority="144">
+    <cfRule type="expression" dxfId="83" priority="144">
       <formula>ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="143">
+    <cfRule type="expression" dxfId="82" priority="143">
       <formula>AND(ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H48/H49)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="142">
+    <cfRule type="expression" dxfId="81" priority="142">
       <formula>AND(ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H48/H49)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:O50">
-    <cfRule type="expression" dxfId="182" priority="147">
+    <cfRule type="expression" dxfId="80" priority="145">
+      <formula>AND(ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H50/H51)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="147">
       <formula>ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="146">
+    <cfRule type="expression" dxfId="78" priority="146">
       <formula>AND(ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H50/H51)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="145">
-      <formula>AND(ABS(H50/H51)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H50/H51)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:O52">
-    <cfRule type="expression" dxfId="179" priority="63">
+    <cfRule type="expression" dxfId="77" priority="63">
       <formula>ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="62">
+    <cfRule type="expression" dxfId="76" priority="62">
       <formula>AND(ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H52/H53)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="61">
+    <cfRule type="expression" dxfId="75" priority="61">
       <formula>AND(ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H52/H53)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:O64 H74:O74 H76:O76">
-    <cfRule type="expression" dxfId="176" priority="166">
+    <cfRule type="expression" dxfId="74" priority="166">
       <formula>AND(ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H64/H65)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="167">
+    <cfRule type="expression" dxfId="73" priority="168">
+      <formula>ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="167">
       <formula>AND(ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H64/H65)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="168">
-      <formula>ABS(H64/H65)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:O66">
-    <cfRule type="expression" dxfId="173" priority="132">
+    <cfRule type="expression" dxfId="71" priority="132">
       <formula>ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="131">
+    <cfRule type="expression" dxfId="70" priority="131">
       <formula>AND(ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H66/H67)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="130">
+    <cfRule type="expression" dxfId="69" priority="130">
       <formula>AND(ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H66/H67)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:O68">
-    <cfRule type="expression" dxfId="170" priority="135">
-      <formula>ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="134">
+    <cfRule type="expression" dxfId="68" priority="134">
       <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="133">
+    <cfRule type="expression" dxfId="67" priority="133">
       <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="135">
+      <formula>ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:O70">
-    <cfRule type="expression" dxfId="167" priority="138">
+    <cfRule type="expression" dxfId="65" priority="138">
       <formula>ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="137">
+    <cfRule type="expression" dxfId="64" priority="137">
       <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="136">
+    <cfRule type="expression" dxfId="63" priority="136">
       <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:O72">
-    <cfRule type="expression" dxfId="164" priority="59">
+    <cfRule type="expression" dxfId="62" priority="59">
       <formula>AND(ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H72/H73)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="58">
+    <cfRule type="expression" dxfId="61" priority="60">
+      <formula>ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>AND(ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H72/H73)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="60">
-      <formula>ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:Y4 R14:Y14 R16:Y16 R24:Y24 R34:Y34 R36:Y36">
-    <cfRule type="expression" dxfId="113" priority="55">
-      <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="59" priority="55">
+      <formula>ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="55">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="55">
-      <formula>ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="57" priority="55">
+      <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:Y6">
-    <cfRule type="expression" dxfId="107" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="52">
+    <cfRule type="expression" dxfId="55" priority="52">
       <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="52">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Y8">
-    <cfRule type="expression" dxfId="101" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
+      <formula>ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="49">
       <formula>AND(ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R8/R9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="49">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>AND(ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R8/R9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="49">
-      <formula>ABS(R8/R9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:Y10">
-    <cfRule type="expression" dxfId="95" priority="46">
+    <cfRule type="expression" dxfId="50" priority="48">
+      <formula>ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="47">
-      <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:Y12">
+    <cfRule type="expression" dxfId="47" priority="10">
+      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="48">
-      <formula>ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="46" priority="11">
+      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="12">
+      <formula>ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26:Y26">
-    <cfRule type="expression" dxfId="89" priority="43">
+    <cfRule type="expression" dxfId="44" priority="43">
+      <formula>ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="43">
       <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="43">
-      <formula>ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:Y28">
-    <cfRule type="expression" dxfId="83" priority="40">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:Y30">
-    <cfRule type="expression" dxfId="77" priority="37">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="38">
-      <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:Y32">
+    <cfRule type="expression" dxfId="35" priority="9">
+      <formula>ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="39">
-      <formula>ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="34" priority="8">
+      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="7">
+      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AM4 AB14:AM14 AB16:AM16">
-    <cfRule type="expression" dxfId="71" priority="55">
-      <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="32" priority="57">
+      <formula>ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="56">
+    <cfRule type="expression" dxfId="31" priority="56">
       <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="57">
-      <formula>ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="30" priority="190">
+      <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AM6">
-    <cfRule type="expression" dxfId="65" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="31">
+    <cfRule type="expression" dxfId="28" priority="31">
+      <formula>ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="31">
-      <formula>ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AM8">
-    <cfRule type="expression" dxfId="59" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AM10">
-    <cfRule type="expression" dxfId="53" priority="28">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="191">
       <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29">
-      <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AM12">
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30">
-      <formula>ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="19" priority="6">
+      <formula>ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="5">
+      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AM24 AB34:AM34 AB36:AM36">
-    <cfRule type="expression" dxfId="47" priority="52">
-      <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="17" priority="54">
+      <formula>ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53">
+    <cfRule type="expression" dxfId="16" priority="53">
       <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="54">
-      <formula>ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="15" priority="192">
+      <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26:AM26">
-    <cfRule type="expression" dxfId="41" priority="19">
-      <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="19">
+      <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AM28">
-    <cfRule type="expression" dxfId="35" priority="19">
-      <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="193">
+      <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AM30">
-    <cfRule type="expression" dxfId="29" priority="16">
-      <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:Y12">
-    <cfRule type="expression" dxfId="23" priority="10">
-      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
-      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12">
-      <formula>ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32:Y32">
-    <cfRule type="expression" dxfId="17" priority="7">
-      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AM12">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="6" priority="16">
+      <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32:AM32">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
@@ -29126,23 +28650,23 @@
         <v>26</v>
       </c>
       <c r="G2" s="81"/>
-      <c r="H2" s="164" t="s">
+      <c r="H2" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="154"/>
-      <c r="J2" s="164" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="154"/>
+      <c r="K2" s="144"/>
       <c r="M2" s="81"/>
-      <c r="N2" s="164" t="s">
+      <c r="N2" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="154"/>
-      <c r="P2" s="164" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="154"/>
+      <c r="Q2" s="144"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
@@ -29700,13 +29224,13 @@
       <c r="E15" s="3">
         <v>0.20880361</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
       <c r="M15" s="2"/>
       <c r="N15" s="7">
         <v>3.8296000000000001E-4</v>
@@ -30241,13 +29765,13 @@
       </c>
     </row>
     <row r="39" spans="13:17" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M39" s="141" t="s">
+      <c r="M39" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="N39" s="142"/>
-      <c r="O39" s="142"/>
-      <c r="P39" s="142"/>
-      <c r="Q39" s="142"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -30262,13 +29786,13 @@
     <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:K4 N4:Q4 H6:K6 N6:Q6 H8:K8 N8:Q8 H10:K10 N10:Q10 H12:K12 N12:Q12 N14:Q14 N16:Q16 N18:Q18 N20:Q20 N22:Q22 N24:Q24 N26:Q26 N28:Q28 N30:Q30 N32:Q32 N34:Q34 N36:Q36">
-    <cfRule type="expression" dxfId="116" priority="58">
+    <cfRule type="expression" dxfId="2" priority="58">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="59">
+    <cfRule type="expression" dxfId="1" priority="59">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="60">
+    <cfRule type="expression" dxfId="0" priority="60">
       <formula>ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
